--- a/COGS_Modify.xlsx
+++ b/COGS_Modify.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C428"/>
+  <dimension ref="A1:D433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>รหัสสินค้า</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Product Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>COGS/Unit</t>
         </is>
@@ -451,10 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>8852278007722</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t xml:space="preserve"> กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0772 สีเทาธรรมชาติ (1 KG.)</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>41.08393939393938</v>
       </c>
     </row>
@@ -464,10 +474,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>8852278001201</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> กาวยาแนว จระเข้เงิน 0120 สีครีมเอแคร์ (1 KG.)</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>18.36</v>
       </c>
     </row>
@@ -477,10 +492,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>8852278001539</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> กาวยาแนว จระเข้เงิน 0153 สีชมพู (1 KG.)</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>20.83370833333334</v>
       </c>
     </row>
@@ -490,10 +510,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>8852278001683</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t xml:space="preserve"> กาวยาแนว จระเข้เงิน 0168 สีน้ำตาลเนื้อทอง (1 KG.)</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>18.995</v>
       </c>
     </row>
@@ -503,10 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>8852278001720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t xml:space="preserve"> กาวยาแนว จระเข้เงิน 0172 สีเทาธรรมชาติ (1 KG.)</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>16.77385714285714</v>
       </c>
     </row>
@@ -516,10 +546,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>8852278001744</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t xml:space="preserve"> กาวยาแนว จระเข้เงิน 0174 สีเทาแกรนิต (1 KG.)</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>18.86625</v>
       </c>
     </row>
@@ -529,10 +564,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>8851540009945</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t xml:space="preserve"> ค้อนช่างทอง 100กรัม (CF100) ด้ามไฟเบอร์ INDY</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>65.272475</v>
       </c>
     </row>
@@ -542,10 +582,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>8851540013980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t xml:space="preserve"> ถาดรองลูกกลิ้งทาสี หน้ากว้าง 10 นิ้ว (PS70570) INDY</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>54.39367428571431</v>
       </c>
     </row>
@@ -555,10 +600,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>121007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t xml:space="preserve"> ถุงมือยางสีส้ม SWAN ไซท์L ( 8")</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>20.93124999999999</v>
       </c>
     </row>
@@ -568,10 +618,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>8851540013461</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t xml:space="preserve"> ลูกกลิ้งทาสีบ้าน ชุดด้าม 14 นิ้ว+ลูกกลิ้งทาสีขนเคมีสังเคราะห์  9.5" (HRC60209) AT INDY</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>54.3937</v>
       </c>
     </row>
@@ -581,10 +636,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>8851540011917</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t xml:space="preserve"> สิ่วช่างไม้ ขนาด 1-1/2" / 38 มม. (C115) INDY</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>67.99209814814813</v>
       </c>
     </row>
@@ -594,10 +654,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>8851540013522</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t xml:space="preserve"> เกรียงโป้วสีสแตนเลส ด้ามยาง 1.5" (S115) INDY</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>47.29167142857143</v>
       </c>
     </row>
@@ -607,10 +672,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>8851540013553</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t xml:space="preserve"> เกรียงโป้วสีสแตนเลส ด้ามยาง 3" (S130) INDY</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>59.8330875</v>
       </c>
     </row>
@@ -620,10 +690,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>8851540013560</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t xml:space="preserve"> เกรียงโป้วสีสแตนเลส ด้ามยาง 4" (S140) INDY</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>65.27244999999999</v>
       </c>
     </row>
@@ -633,10 +708,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>8851540015427</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t xml:space="preserve">AT INDY เพลทมือจับกระดาษทราย ขนาด 11.5 x 22 ซม.(C012) </t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>58.92651697530865</v>
       </c>
     </row>
@@ -646,10 +726,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>8854620000108</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Cana ครีมขัดสีรถ ลบรอยขนแมว ครีมขัดเงารถ ยาขัดเงารถ( ขนาด 220 กรัม ) ฃ</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>60</v>
       </c>
     </row>
@@ -659,10 +744,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>130511</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>FASTFIX เทปกันรั่วซึม เทปติดหลังคา แผ่นปิดรอยต่อบิวทิล (Butyl Rubber Tape) ( ขนาด 10 x 300 ซม. ) แรงยึดเกาะสูง ทนทาน</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>104.67</v>
       </c>
     </row>
@@ -672,10 +762,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>8850106095040</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>TOA กาวลาเท็กซ์ กาวอเนกประสงค์ ทีโอเอ รุ่น LA-22S มี 2 ขนาด ( 4 , 16 ออนซ์ ) ยึดเกาะดีเยี่ยม เหนียวแน่น ปาดกาวง่าย(16 ออนซ์)</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>33.26</v>
       </c>
     </row>
@@ -685,10 +780,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>8850106519492</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>TOA กาวลาเท็กซ์ สำหรับงานไม้ปาร์เก้ งานเฟอร์นิเจอร์ กาวอเนกประสงค์ ทีโอเอ รุ่น LA-35A ( ขนาด 1 KG. ) ยึดเกาะดีเยี่ยม</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>78.39</v>
       </c>
     </row>
@@ -698,10 +798,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>0485</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t xml:space="preserve">TPI ปูนซ่อมอเนกประสงค์สำเร็จรูป รุ่น TPI-M600 ( น้ำหนัก 2 KG. ) </t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>19.81162831858387</v>
       </c>
     </row>
@@ -711,10 +816,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>8855401200144</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t xml:space="preserve">WEBER (ตราตุ๊กแก) ตาข่ายไฟเบอร์เวเบอร์เทป เทปตาข่ายชนิดมีกาวในตัว ( ขนาด 5 ซม. x 20 ม.) </t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>26.17409090909091</v>
       </c>
     </row>
@@ -724,10 +834,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>8851540016684</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>กรรไกรตัดPVC (K50) ตั้งองศา 90,45,22.5องศา INDY</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>226.6405</v>
       </c>
     </row>
@@ -737,10 +852,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>020205200</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>กรรไกรตัดกิ่ง 930 gardening shearขนาด 8 นิ้ว</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>59.2719</v>
       </c>
     </row>
@@ -750,10 +870,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>020101858</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>กรรไกรตัดกิ่งลายไม้ ขนาด 8 นิ้ว (อย่างดี)</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>171.8711</v>
       </c>
     </row>
@@ -763,10 +888,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>8851540015420</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>กรรไกรตัดท่อ พีวีซี คีมตัดท่อ INDY ขนาด 9 นิ้ว(P45)</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>226.6405</v>
       </c>
     </row>
@@ -776,10 +906,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>8851540015137</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>กรรไกรตัดท่อพีวีซี INDY ขนาด 8 นิ้ว(P46)</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>81.5907</v>
       </c>
     </row>
@@ -789,10 +924,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>040404313</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t xml:space="preserve">กรรไกรตัดท่อพีวีซี กรรไกรตัดท่อ PVC </t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>89.9692</v>
       </c>
     </row>
@@ -802,10 +942,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>8851540010569</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t xml:space="preserve">กรรไกรตัดอลูมีเนียม ตัดลวด ตัดซีลาย INDY แบบปากตรง (K41) </t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>90.6562</v>
       </c>
     </row>
@@ -815,10 +960,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>8851540010088</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>กรรไกรตัดเหล็กหุ้มยาง  14" (14314C) AT INDY</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>203.9765</v>
       </c>
     </row>
@@ -828,10 +978,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>8851540015946</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>กรรไกรตัดแต่งกิ่ง  ใบมีดเคลือบไทเทเนียม คมตัดง่าย 9" (P33-1) AT INDY</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>172.2469</v>
       </c>
     </row>
@@ -841,10 +996,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>8851540011283</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>กรรไกรตัดแต่งกิ่ง ด้ามอลูมิเนียมหุ้มยาง INDY ขนาด 8 นิ้ว (P35)</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>115.1333</v>
       </c>
     </row>
@@ -854,10 +1014,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>8851540016066</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>กรรไกรแต่งกิ่กรรไกรตัดแต่งกิ่งด้ามยาว  ( ขนาด 27 นิ้ว ) (P54) AT INDY</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>172.24665</v>
       </c>
     </row>
@@ -867,10 +1032,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>8851540015557</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>กระดาษทรายซ้อน จานทราย จานทรายเรียงซ้อน หลังแข็ง  AT INDY ขนาด 4"(100x16มม. (G007-100)</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>31.7297</v>
       </c>
     </row>
@@ -880,10 +1050,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>8851540015564</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>กระดาษทรายซ้อน จานทราย จานทรายเรียงซ้อน หลังแข็ง  AT INDY ขนาด 4"(100x16มม.)(G007-120)</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>31.7297</v>
       </c>
     </row>
@@ -893,10 +1068,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>8851540015083</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>กระบะฉาบปูน PVC สีดำ ขนาด 23 x 20 ซม. INDY(C011)</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>25.29810220125785</v>
       </c>
     </row>
@@ -906,10 +1086,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>8851540004209</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>กล่องเครื่องมือ 2 ชั้น กล่องเก็บเครื่องมือช่าง ขนาด 16 นิ้ว (Z201)</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>199.4433</v>
       </c>
     </row>
@@ -919,10 +1104,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>8851540015502</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>กล่องเครื่องมือ เหล็ก 3 ชั้น กล่องเก็บเครื่องมือช่าง 18 นิ้ว (มือจับคู่) Z301</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>679.9213999999999</v>
       </c>
     </row>
@@ -932,10 +1122,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>8850106765417</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>กาวซิลิโคน ยาแนวรอยต่อ กันรั่วกันซึม (ขนาด 280 ml) TOA  สีขาว</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>69.4507142857143</v>
       </c>
     </row>
@@ -945,10 +1140,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>8850106765400</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>กาวซิลิโคน ยาแนวรอยต่อ กันรั่วกันซึม (ขนาด 280 ml) TOA สีดำ</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>66.47333333333331</v>
       </c>
     </row>
@@ -958,10 +1158,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>8850106765394</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>กาวซิลิโคน ยาแนวรอยต่อ กันรั่วกันซึม (ขนาด 280 ml) TOA สีใส</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>65.2025</v>
       </c>
     </row>
@@ -971,10 +1176,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>8888299751184</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>กาวตราช้าง กาวอเนกประสงค์ ใช้ซ่อมแซมสิ่งของ ตราช้าง ALTECO (สีใส)(ขนาด 3 กรัม) **แห้งใน 10 วินาที **ยึดเกาะเหนียวแน่น**</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>15.76166666666666</v>
       </c>
     </row>
@@ -984,10 +1194,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>9312280115048</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>กาวตะปู Max Bond ( ขนาด 320 กรัม)</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>80.38</v>
       </c>
     </row>
@@ -997,10 +1212,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>8859450293461</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>กาวทาท่อ PVC ตราท่อน้ำไทย ขนาด 50 กรัม</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>31.79</v>
       </c>
     </row>
@@ -1010,10 +1230,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>8888299808031</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>กาวมหาอุด กาวดินน้ำมัน กาวอีพ็อกซี่ (Epo Putty) ALTECO ( ขนาด 100 กรัม ) ใช้ขณะวัสดุเปียกได้ แห้งแล้วแข็งเหมือนหิน</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>88.25999999999999</v>
       </c>
     </row>
@@ -1023,10 +1248,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>8858903057049</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>กาวยางสังเคราะห์ชนิดพิเศษ กาวยางตราช้าง ASA-HI (170 กรัม)</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>29.24281249999998</v>
       </c>
     </row>
@@ -1036,10 +1266,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>8858903057032</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>กาวยางสังเคราะห์ชนิดพิเศษ กาวยางตราช้าง ASA-HI (450 กรัม)</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>79.18000000000001</v>
       </c>
     </row>
@@ -1049,10 +1284,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>8852278007104</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0710 สีขาวไข่มุก (1 KG.)</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>41.61802139534873</v>
       </c>
     </row>
@@ -1062,10 +1302,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>8852278007203</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0720 สีครีมเอแคร์ (1 KG.)</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>47.68647058823527</v>
       </c>
     </row>
@@ -1075,10 +1320,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>8852278007210</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0721 สีครีมงาช้าง (1 KG.)</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>41.93636363636361</v>
       </c>
     </row>
@@ -1088,10 +1338,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>8852278007227</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t xml:space="preserve">กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0722 สีครีมนวลจันทร์ ( 1 KG. ) </t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>40.8</v>
       </c>
     </row>
@@ -1101,10 +1356,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>8852278007234</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0723 สีครีม (1KG.)</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>42.06</v>
       </c>
     </row>
@@ -1114,10 +1374,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>8852278007418</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0741 สีฟ้ารุ่งอรุญ (1 KG.)</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>47.78999999999999</v>
       </c>
     </row>
@@ -1127,10 +1392,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>8852278007531</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0753 สีชมพู (1 KG.)</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>42.06</v>
       </c>
     </row>
@@ -1140,10 +1410,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>8852278007579</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t xml:space="preserve">กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0757 สีแดงเชอรี่ ( น้ำหนัก 1 KG. ) </t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>47.104</v>
       </c>
     </row>
@@ -1153,10 +1428,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>8852278007678</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0767 สีน้ำตาลทะเลทราย (1 KG.)</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>47.7075</v>
       </c>
     </row>
@@ -1166,10 +1446,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>8852278007685</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0768 สีน้ำตาลเนื้อทอง(1KG.)</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>47.493</v>
       </c>
     </row>
@@ -1179,10 +1464,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>8852278007715</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0771 สีเทาปะการัง (1 KG.)</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>41.7630952380952</v>
       </c>
     </row>
@@ -1192,10 +1482,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>8852278007746</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0774 สีเทาแกรนิต (1 KG.)</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>40.8</v>
       </c>
     </row>
@@ -1205,10 +1500,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>8852278007791</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้พรีเมี่ยม พลัส เงิน 0779 สีครีมดำลิกไนต์ (1 KG.)</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>47.21517241379312</v>
       </c>
     </row>
@@ -1218,10 +1518,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>8852278001102</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t xml:space="preserve">กาวยาแนว จระเข้เงิน 0110 สีขาวไข่มุก (1 KG.) </t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>15.11739889196678</v>
       </c>
     </row>
@@ -1231,10 +1536,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>8852278001218</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้เงิน 0121 สีครีมงาช้าง (1 KG.)</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>18.9105882352941</v>
       </c>
     </row>
@@ -1244,10 +1554,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>8852278001225</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้เงิน 0122 สีครีมนวลจันทร์ (1 KG.)</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>18.36</v>
       </c>
     </row>
@@ -1257,10 +1572,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>8852278001577</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้เงิน 0157 สีแดงเชอรี่ (1 KG.)</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>22.66</v>
       </c>
     </row>
@@ -1270,10 +1590,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>8852278001652</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้เงิน 0165 สีอิฐดินเผา (1 KG.)</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>22.44</v>
       </c>
     </row>
@@ -1283,10 +1608,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>8852278001676</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้เงิน 0167 สีน้ำตาลทะเลทราย ( น้ำหนัก 1 KG. )</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>18.67233333333333</v>
       </c>
     </row>
@@ -1296,10 +1626,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>8852278001713</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้เงิน 0171 สีเทาปะการัง (1 KG.)</t>
         </is>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>20.27555555555556</v>
       </c>
     </row>
@@ -1309,10 +1644,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>8852278001799</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>กาวยาแนว จระเข้เงิน 0179 สีดำลิกไนต์ (1 KG.)</t>
         </is>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>20.57693877551021</v>
       </c>
     </row>
@@ -1322,10 +1662,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>8851540016578</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>กาวร้อนอเนกประสงค์ 20 กรัม (HG100) INDY</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>10.87870333333333</v>
       </c>
     </row>
@@ -1335,10 +1680,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>8851540016691</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>กาวร้อนอเนกประสงค์ ขนาด 40 กรัม (HG110)</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>20.8509</v>
       </c>
     </row>
@@ -1348,10 +1698,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>8850106095026</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>กาวลาเท็กซ์TOA ขนาด 4 ออนซ์ รุ่น LA-22S</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>12.59</v>
       </c>
     </row>
@@ -1361,10 +1716,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>8850747211144</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t xml:space="preserve">กาวอะคริลิค กาวซิลิโคน อะคริลิคซีลแลนท์ แด็ป RedFox Acrylic sealant Bosny (สีน้ำตาล) </t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>24.06666666666667</v>
       </c>
     </row>
@@ -1374,10 +1734,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>8850747211120</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>กาวอะคริลิค กาวซิลิโคน อะคลิลิคซีลแลนท์ แด็ป RedFox Acrylic sealant Bosny (สีขาว)</t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>22.30228571428572</v>
       </c>
     </row>
@@ -1387,10 +1752,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>8850747211137</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>กาวอะคริลิค กาวซิลิโคน อะคลิลิคซีลแลนท์ แด็ป RedFox Acrylic sealant Bosny (สีเทา)</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>23.80000000000001</v>
       </c>
     </row>
@@ -1400,10 +1770,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>8888299800011</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>กาวอีพ็อกซี่ กาวมหาอุด กาวEpoxy การสารพัดประโยชน์ ALTECO รุ่น 2-TON (สีเหล็ก , สีใส) *แห้งเร็วภายใน 5 นาที ของแท้แน่นอน(สีเหล็ก)</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1413,10 +1788,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>8888299801117</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>กาวอีพ็อกซี่ กาวมหาอุด กาวEpoxy การสารพัดประโยชน์ ALTECO รุ่น 2-TON (สีเหล็ก , สีใส) *แห้งเร็วภายใน 5 นาที ของแท้แน่นอน(สีใส)</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1426,10 +1806,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>110485</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>กิ๊ปจับท่อ PVC ตราช้าง SCG ขนาด 1/2นิ้ว</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1439,10 +1824,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>8851540010736</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>ขวานด้ามไฟเบอร์ รุ่น Modern 800 กรัม (CM034) INDY</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>158.6484</v>
       </c>
     </row>
@@ -1452,10 +1842,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>8851540002823</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t xml:space="preserve">ขาเหล็กรับชั้นวางของ ฉากติดผนัง ฉากเท้าแขน INDY ขนาด 10 x 12 นิ้ว (C060) </t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>27.19683</v>
       </c>
     </row>
@@ -1465,10 +1860,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>8851540002830</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>ขาเหล็กรับชั้นวางของ ฉากติดผนัง ฉากเท้าแขน INDY ขนาด 12 x 14 นิ้ว (C061)</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>32.63624248039216</v>
       </c>
     </row>
@@ -1478,10 +1878,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>8851540006425</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>ขาเหล็กรับชั้นวางของ ฉากติดผนัง ฉากเท้าแขน INDY ขนาด 3 x 4 นิ้ว (C122)</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>13.5984125</v>
       </c>
     </row>
@@ -1491,10 +1896,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>8851540006432</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>ขาเหล็กรับชั้นวางของ ฉากติดผนัง ฉากเท้าแขน INDY ขนาด 4 x 5 นิ้ว (C123)</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>13.59844166666667</v>
       </c>
     </row>
@@ -1504,10 +1914,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>8851540002809</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>ขาเหล็กรับชั้นวางของ ฉากติดผนัง ฉากเท้าแขน INDY ขนาด 6 x 8 นิ้ว (C058)</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>18.13121428571429</v>
       </c>
     </row>
@@ -1517,10 +1932,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>8851540002816</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>ขาเหล็กรับชั้นวางของ ฉากติดผนัง ฉากเท้าแขน INDY ขนาด 8 x 10 นิ้ว (C059)</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>22.66398333333333</v>
       </c>
     </row>
@@ -1530,10 +1950,15 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>110551</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>ข้องอ PVC 90 ํ หนา ขนาด 1/2" SCG</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>3.11</v>
       </c>
     </row>
@@ -1543,10 +1968,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>1105113</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>ข้อต่อ PVC พีวีซี ตราช้าง SCG ขนาด 1/2นิ้ว (4หุน หรือ 18 มม.)  ข้องอ 45 90 สามทาง ข้อต่อเกลียวใน/นอก ฝาครอบ</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>7.423333333333333</v>
       </c>
     </row>
@@ -1556,10 +1986,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>110510</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>ข้อต่อ PVC พีวีซี ตราช้าง SCG ขนาด 1/2นิ้ว (4หุน หรือ 18 มม.) *หนา - ต่อตรง ข้องอ 45 90 สามทาง ข้อต่อเกลียวใน/นอก ฝาครอบ(ข้องอ 4</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>3.97</v>
       </c>
     </row>
@@ -1569,10 +2004,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>1105129</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>ข้อต่อ PVC พีวีซี ตราช้าง SCG ขนาด 1/2นิ้ว (4หุน หรือ 18 มม.) *หนา - ต่อตรง ข้องอ 45 90 สามทาง ข้อต่อเกลียวใน/นอก ฝาครอบ(ข้องอเก</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>5.74</v>
       </c>
     </row>
@@ -1582,10 +2022,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>1105116</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>ข้อต่อ PVC พีวีซี ตราช้าง SCG ขนาด 1/2นิ้ว (4หุน หรือ 18 มม.) *หนา - ต่อตรง ข้องอ 45 90 สามทาง ข้อต่อเกลียวใน/นอก ฝาครอบ(ข้อต่อต</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>2.31</v>
       </c>
     </row>
@@ -1595,10 +2040,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>1105124</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>ข้อต่อ PVC พีวีซี ตราช้าง SCG ขนาด 1/2นิ้ว (4หุน หรือ 18 มม.) *หนา - ต่อตรง ข้องอ 45 90 สามทาง ข้อต่อเกลียวใน/นอก ฝาครอบ(นิปเปิ้</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>3.02</v>
       </c>
     </row>
@@ -1608,10 +2058,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>110486</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t xml:space="preserve">ข้อต่อ PVC พีวีซี ตราช้าง SCG ขนาด 3/4นิ้ว (6หุน หรือ 20 มม.) *หนา - ต่อตรง ข้องอ 45 90 สามทาง </t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>1.57</v>
       </c>
     </row>
@@ -1621,10 +2076,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>110552</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>ข้อต่อ PVC พีวีซี ตราช้าง SCG ขนาด 3/4นิ้ว (6หุน หรือ 20 มม.) *หนา - ต่อตรง ข้องอ 45 90 สามทาง ข้อต่อเกลียวใน/นอก ฝาครอบ(ข้องอ 9</t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>4.84</v>
       </c>
     </row>
@@ -1634,10 +2094,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>1105117</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>ข้อต่อ PVC พีวีซี ตราช้าง SCG ขนาด 3/4นิ้ว (6หุน หรือ 20 มม.) *หนา - ต่อตรง ข้องอ 45 90 สามทาง ข้อต่อเกลียวใน/นอก ฝาครอบ(ข้อต่อต</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -1647,10 +2112,15 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>1104122</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>ข้อต่อ PVC พีวีซี ตราช้าง SCG ขนาด 3/4นิ้ว (6หุน หรือ 20 มม.) *หนา - ต่อตรง ข้องอ 45 90 สามทาง ข้อต่อเกลียวใน/นอก ฝาครอบ(คลิปก้า</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>1.82</v>
       </c>
     </row>
@@ -1660,10 +2130,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>1105102</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>ข้อต่อ PVC พีวีซี ตราช้าง SCG ขนาด 3/4นิ้ว (6หุน หรือ 20 มม.) *หนา - ต่อตรง ข้องอ 45 90 สามทาง ข้อต่อเกลียวใน/นอก ฝาครอบ(ปลั๊กอุ</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>1.52</v>
       </c>
     </row>
@@ -1673,10 +2148,15 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>110515</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>ข้อต่อ PVC พีวีซี ตราช้าง SCG ขนาด 3/4นิ้ว (6หุน หรือ 20 มม.) *หนา - ต่อตรง ข้องอ 45 90 สามทาง ข้อต่อเกลียวใน/นอก ฝาครอบ(ฝาครอบ)</t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>3.94</v>
       </c>
     </row>
@@ -1686,10 +2166,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>110562</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>ข้อต่อ PVC พีวีซี ตราช้าง SCG ขนาด 3/4นิ้ว (6หุน หรือ 20 มม.) *หนา - ต่อตรง ข้องอ 45 90 สามทาง ข้อต่อเกลียวใน/นอก ฝาครอบ(สามทาง)</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>6.08</v>
       </c>
     </row>
@@ -1699,10 +2184,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>110501</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>ข้อต่อตรง PVC หนา ขนาด 1/2" SCG</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>2.58</v>
       </c>
     </row>
@@ -1712,10 +2202,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>1105104</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>ข้อต่อตรงเกลียวใน PVC ขนาด 1/2" SCG</t>
         </is>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>2.685</v>
       </c>
     </row>
@@ -1725,10 +2220,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>8851540017070</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>คราดพรวนดิน (PG50) INDY</t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>67.99214186046513</v>
       </c>
     </row>
@@ -1738,10 +2238,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>1104119</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>คลิปก้ามปู PVC ตราช้าง SCG ขนาด 1/2นิ้ว</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1751,10 +2256,15 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>8851540009150</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>คีม คีมคอม้า คีมจับท่อ ประแจคอม้า ประแจจับท่อ AT INDY ( ขนาด 10 นิ้ว ) รุ่น K150 * ด้ามจับหุ้มยาง จับถนัดมือ *</t>
         </is>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>122.3848</v>
       </c>
     </row>
@@ -1764,10 +2274,15 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>013603200</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>คีมตัดตะปู คีมผูกลวด ขนาด 8 นิ้ว</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>65.9606</v>
       </c>
     </row>
@@ -1777,10 +2292,15 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>8851540013331</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>คีมตัดสายไฟ สายเคเบิ้ล INDY ขนาด 6.8 นิ้ว(G09)</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>122.384975</v>
       </c>
     </row>
@@ -1790,10 +2310,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>8851540003240</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>คีมปากตัด AT INDY ( ขนาด 6 นิ้ว ) รุ่น K02</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>81.59059999999999</v>
       </c>
     </row>
@@ -1803,10 +2328,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>8851540002304</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>คีมปากเฉียง AT INDY  6" (G06)</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>90.65616666666666</v>
       </c>
     </row>
@@ -1816,10 +2346,15 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>8851540002298</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
           <t>คีมปากแหลม AT INDY ขนาด 6 นิ้ว (G05)</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>90.6562</v>
       </c>
     </row>
@@ -1829,10 +2364,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>011103150</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>คีมปากแหลมขนาด 6 นิ้ว (คุ้มค่า)</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>41.4047</v>
       </c>
     </row>
@@ -1842,10 +2382,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>8851540016097</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>คีมย้ำตะปูรีเวท คีมย้ำตะปู คีมย้ำรีเวท เครื่องยิงรีเวต์เตอร์ AT INDY ( ขนาด 8 นิ้ว ) แข็งแรง ด้ามจับหุ้มยาง บีบง่าย</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>208.5076</v>
       </c>
     </row>
@@ -1855,10 +2400,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>060802698</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>คีมย้ำรีเวท (รุ่นงานหนัก)</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>96.4571</v>
       </c>
     </row>
@@ -1868,10 +2418,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>060802728</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
           <t>คีมย้ำรีเวทมือเดียว (ธรรมดา)</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>64.4914</v>
       </c>
     </row>
@@ -1881,10 +2436,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>015004250</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>คีมล็อคสีดำ ขนาด 10 นิ้ว</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>72.3601</v>
       </c>
     </row>
@@ -1894,10 +2454,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>011301009</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>คีมอเนกประสงค์ ปอกสายไฟได้ ขนาด 9 นิ้ว (รุ่น งานหนัก + ประหยัดแรง)</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>183.4478</v>
       </c>
     </row>
@@ -1907,10 +2472,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>8851540009952</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>ค้อนช่างทอง 200กรัม (CF200) ด้ามไฟเบอร์ INDY</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>75.24465000000001</v>
       </c>
     </row>
@@ -1920,10 +2490,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>8851540009969</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
           <t>ค้อนช่างทอง 300กรัม (CF300) ด้ามไฟเบอร์ INDY</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>80.6836</v>
       </c>
     </row>
@@ -1933,10 +2508,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>8851540011719</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
           <t>ค้อนทุบหิน ตีเหล็ก ด้ามไฟเบอร์ INDY รุ่น Modern ขนาด 2 ปอนด์ (HM31)</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="D116" t="n">
         <v>123.29245</v>
       </c>
     </row>
@@ -1946,10 +2526,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>8851540011092</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>ค้อนยางดำ ด้ามไฟเบอร์ AT INDY ขนาด 16 ออนซ์ (AM41)</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="D117" t="n">
         <v>99.72185</v>
       </c>
     </row>
@@ -1959,10 +2544,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>8851540011108</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>ค้อนยางดำ ด้ามไฟเบอร์ AT INDY ขนาด 24 oz (AM42)</t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>113.3204333333333</v>
       </c>
     </row>
@@ -1972,10 +2562,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>8851540000270</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>ค้อนยางดำ ด้ามไม้ AT INDY ขนาด 16 oz (A41)</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="D119" t="n">
         <v>63.459075</v>
       </c>
     </row>
@@ -1985,10 +2580,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>8851540000287</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>ค้อนยางดำ ด้ามไม้ AT INDY ขนาด 24 oz (A42)</t>
         </is>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
         <v>90.6562</v>
       </c>
     </row>
@@ -1998,10 +2598,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>8851540016387</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>ค้อนหงอน ด้ามไฟเบอร์ INDY ขนาด 21มม./8oz(HA18)</t>
         </is>
       </c>
-      <c r="C121" t="n">
+      <c r="D121" t="n">
         <v>77.05777916666666</v>
       </c>
     </row>
@@ -2011,10 +2616,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>8851540016394</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>ค้อนหงอน ด้ามไฟเบอร์ INDY ขนาด 27มม./16oz(HA19)</t>
         </is>
       </c>
-      <c r="C122" t="n">
+      <c r="D122" t="n">
         <v>104.254625</v>
       </c>
     </row>
@@ -2024,10 +2634,15 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>8851540003479</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>ค้อนหงอน ด้ามไม้ INDY ขนาด 21มม./8oz (H28)</t>
         </is>
       </c>
-      <c r="C123" t="n">
+      <c r="D123" t="n">
         <v>86.1234</v>
       </c>
     </row>
@@ -2037,10 +2652,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>8852278100843</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
           <t xml:space="preserve">จระเข้ ซิลิโคนกันซึม โพลียูเทนอุดรอยต่อ โพลี-ยู ซีล อุดรอยต่อ (สีขาว) </t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="D124" t="n">
         <v>171.3</v>
       </c>
     </row>
@@ -2050,10 +2670,15 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
+          <t>8852278100836</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
           <t>จระเข้ ซิลิโคนกันซึม โพลียูเทนอุดรอยต่อ โพลี-ยู ซีล อุดรอยต่อ (สีเทา)</t>
         </is>
       </c>
-      <c r="C125" t="n">
+      <c r="D125" t="n">
         <v>171.3</v>
       </c>
     </row>
@@ -2063,10 +2688,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
+          <t>8852278101789</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
           <t xml:space="preserve">จระเข้ ซีเมนต์กันซึม กันซึม เฟล็กซ์-ชิลด์ สีเทา  ( น้ำหนัก 1 KG. ) </t>
         </is>
       </c>
-      <c r="C126" t="n">
+      <c r="D126" t="n">
         <v>929.3460625000001</v>
       </c>
     </row>
@@ -2076,10 +2706,15 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
+          <t>8852278100270</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
           <t>จระเข้ ซีเมนต์กันซึม เฟล็กซ์-ชิลด์ สีเทา ( น้ำหนัก 4 KG. )</t>
         </is>
       </c>
-      <c r="C127" t="n">
+      <c r="D127" t="n">
         <v>414.86</v>
       </c>
     </row>
@@ -2089,10 +2724,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
+          <t>8851540010163</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
           <t xml:space="preserve">ชุดดอกสว่าน ดอกสว่าน 9 ตัว/ชุด (เจาะปูน เหล็ก ไม้) AT INDY </t>
         </is>
       </c>
-      <c r="C128" t="n">
+      <c r="D128" t="n">
         <v>63.45955</v>
       </c>
     </row>
@@ -2102,10 +2742,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
+          <t>8851540013195</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
           <t xml:space="preserve">ชุดด้าม+ลูกกลิ้งทาสี 4" x 24" (HRC30104-24) INDY </t>
         </is>
       </c>
-      <c r="C129" t="n">
+      <c r="D129" t="n">
         <v>49.86081714285715</v>
       </c>
     </row>
@@ -2115,10 +2760,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
+          <t>8851540013942</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
           <t>ชุดด้าม+ลูกกลิ้งทาสีน้ำมันขนสักกะหลาด 4" x 12" (HRC30114-12)</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="D130" t="n">
         <v>40.79528064516129</v>
       </c>
     </row>
@@ -2128,10 +2778,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
+          <t>8851540013959</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
           <t>ชุดด้าม+ลูกกลิ้งทาสีน้ำมันขนสักกะหลาด 4" x 18" (HRC30114-18) INDY</t>
         </is>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>45.32797199999998</v>
       </c>
     </row>
@@ -2141,10 +2796,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>8851540016585</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>ชุดถอนสกรูเกลียวซ้าย INDY 4ตัว/ชุด(A32)</t>
         </is>
       </c>
-      <c r="C132" t="n">
+      <c r="D132" t="n">
         <v>54.3936375</v>
       </c>
     </row>
@@ -2154,10 +2814,15 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
+          <t>8851540015182</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
           <t xml:space="preserve">ชุดถาดทาสี+ลูกกลิ้งขนเคมี ด้ามเหล็กชุบโครม ขนาด 4" (PS41104) INDY </t>
         </is>
       </c>
-      <c r="C133" t="n">
+      <c r="D133" t="n">
         <v>58.9265</v>
       </c>
     </row>
@@ -2167,10 +2832,15 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
+          <t>8851540014376</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
           <t>ชุดถาดลูกกลิ้งทาสี + เครื่องมือ 5 ชิ้น (PS70572) INDY</t>
         </is>
       </c>
-      <c r="C134" t="n">
+      <c r="D134" t="n">
         <v>117.8530365671643</v>
       </c>
     </row>
@@ -2180,10 +2850,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
+          <t>8851540017056</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
           <t>ช้อนพรวนดิน (PG30) INDY</t>
         </is>
       </c>
-      <c r="C135" t="n">
+      <c r="D135" t="n">
         <v>67.99214328358214</v>
       </c>
     </row>
@@ -2193,10 +2868,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
+          <t>8851540017063</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
           <t xml:space="preserve">ช้อนพรวนดินมีสเกล AT INDY รุ่น PG40 (ขนาด ก.2.3 x ย.12 นิ้ว) </t>
         </is>
       </c>
-      <c r="C136" t="n">
+      <c r="D136" t="n">
         <v>67.99221666666664</v>
       </c>
     </row>
@@ -2206,10 +2886,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>8851540014246</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
           <t>ดอกปั่นปูน หัวปั่นปูนเอนกประสงค์ AT INDY ( แกน 8 มม. ยาว 400 มม. ) รุ่น PS800 INDY</t>
         </is>
       </c>
-      <c r="C137" t="n">
+      <c r="D137" t="n">
         <v>40.7953</v>
       </c>
     </row>
@@ -2219,10 +2904,15 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
+          <t>8851540009440</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
           <t>ดอกสว่าน ดอกสว่านเจาะคอนกรีต  AT INDY *(3/16 นิ้ว)(HD03)</t>
         </is>
       </c>
-      <c r="C138" t="n">
+      <c r="D138" t="n">
         <v>9.972200000000001</v>
       </c>
     </row>
@@ -2232,10 +2922,15 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
+          <t>8851540015403</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
           <t>ดอกไขควงพร้อมแม่เหล็ก ดอกไขควง 2 ตัว/ชุด AT INDY ขนาด 65 มม.(A30)</t>
         </is>
       </c>
-      <c r="C139" t="n">
+      <c r="D139" t="n">
         <v>27.19695</v>
       </c>
     </row>
@@ -2245,10 +2940,15 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
           <t>ดินสอพอง ลพบุรี​ ( ขนาด 1 KG. )</t>
         </is>
       </c>
-      <c r="C140" t="n">
+      <c r="D140" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2258,10 +2958,15 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>8851540016707</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
           <t>ด้ามต่อลูกกลิ้ง 2 เมตร (TP12) AT INDY</t>
         </is>
       </c>
-      <c r="C141" t="n">
+      <c r="D141" t="n">
         <v>90.65604166666667</v>
       </c>
     </row>
@@ -2271,10 +2976,15 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
+          <t>8851540016714</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
           <t>ด้ามต่อลูกกลิ้ง 3 ม. (TP13) AT INDY</t>
         </is>
       </c>
-      <c r="C142" t="n">
+      <c r="D142" t="n">
         <v>131.4514601587302</v>
       </c>
     </row>
@@ -2284,10 +2994,15 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
+          <t>8851540015052</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
           <t>ตลับเมตร รุ่น Last Shot (T555) 5ม. x 25 มม. คละสี INDY</t>
         </is>
       </c>
-      <c r="C143" t="n">
+      <c r="D143" t="n">
         <v>63.4593</v>
       </c>
     </row>
@@ -2297,10 +3012,15 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
+          <t>8851540016592</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
           <t xml:space="preserve">ตลับเมตร รุ่น TT5M ( ขนาด 5ม.x19 มม. ) INDY </t>
         </is>
       </c>
-      <c r="C144" t="n">
+      <c r="D144" t="n">
         <v>63.45920000000001</v>
       </c>
     </row>
@@ -2310,10 +3030,15 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
+          <t>8851540017223</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
           <t xml:space="preserve">ตลับเมตรหุ้มยาง (T4-525) AUTO-LOCK ยาว 5 เมตร (คละสี) </t>
         </is>
       </c>
-      <c r="C145" t="n">
+      <c r="D145" t="n">
         <v>72.5249625</v>
       </c>
     </row>
@@ -2323,10 +3048,15 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
+          <t>8851540004254</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
           <t>ตลับเมตรหุ้มยาง INDY ขนาด 3.5 เมตร (T35)</t>
         </is>
       </c>
-      <c r="C146" t="n">
+      <c r="D146" t="n">
         <v>54.3937</v>
       </c>
     </row>
@@ -2336,10 +3066,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
+          <t>6920342650258</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
           <t xml:space="preserve">ตลับเมตรหุ้มยาง ปลายแม่เหล็ก ระบบล็อคอัตโนมัติ รุ่น T501 ( ขนาด 5 ม.xกว้าง 25 มม. ) INDY </t>
         </is>
       </c>
-      <c r="C147" t="n">
+      <c r="D147" t="n">
         <v>108.7875</v>
       </c>
     </row>
@@ -2349,10 +3084,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
+          <t>8851540015410</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
           <t>ตลับเมตรฮวงจุ้ย INDY ยาว 3.5 เมตร (T19)</t>
         </is>
       </c>
-      <c r="C148" t="n">
+      <c r="D148" t="n">
         <v>49.8595</v>
       </c>
     </row>
@@ -2362,10 +3102,15 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
+          <t>120227</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
           <t>ตะขอเกลี่ยวปล่อย ตะขอชุบขาวตัว C (จำนวน 12 ตัว) ขนาด 1 นิ้ว</t>
         </is>
       </c>
-      <c r="C149" t="n">
+      <c r="D149" t="n">
         <v>12.6</v>
       </c>
     </row>
@@ -2375,10 +3120,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
+          <t>120228</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
           <t>ตะขอเกลี่ยวปล่อย ตะขอชุบขาวตัว C (จำนวน 12 ตัว) ขนาด 1-1/4 นิ้ว</t>
         </is>
       </c>
-      <c r="C150" t="n">
+      <c r="D150" t="n">
         <v>12.72</v>
       </c>
     </row>
@@ -2388,10 +3138,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>120230</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
           <t>ตะขอเกลี่ยวปล่อย ตะขอชุบขาวตัว L ( จำนวน 12 ตัว) ขนาด 1 นิ้ว</t>
         </is>
       </c>
-      <c r="C151" t="n">
+      <c r="D151" t="n">
         <v>9.273333333333333</v>
       </c>
     </row>
@@ -2401,10 +3156,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
+          <t>120231</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
           <t>ตะขอเกลี่ยวปล่อย ตะขอชุบขาวตัว L ( จำนวน 12 ตัว) ขนาด 1-1/2 นิ้ว</t>
         </is>
       </c>
-      <c r="C152" t="n">
+      <c r="D152" t="n">
         <v>16.32</v>
       </c>
     </row>
@@ -2414,10 +3174,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
+          <t>120984</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
           <t>ตะปู ตะปูตอก ตะปูตอกปูน ตะปูตีผนังปูน มี 2 แบบ ( ตะปูคอนกรีต , ตะปูตอกไม้ )( 100 กรัม ) *เหล็กคุณภาพดี แข็งพิเศษ</t>
         </is>
       </c>
-      <c r="C153" t="n">
+      <c r="D153" t="n">
         <v>3.617777777777777</v>
       </c>
     </row>
@@ -2427,11 +3192,16 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve">ตะปูตีผนัง( ตะปูคอนกรีต , ตะปูตอกไม้ )( 100 กรัม ) </t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>5.6</v>
+          <t>120986</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ตะปู ตะปูตอก ตะปูตอกปูน ตะปูตีผนังปูน มี 2 แบบ ( ตะปูคอนกรีต , ตะปูตอกไม้ )( 100 กรัม ) *เหล็กคุณภาพดี แข็งพิเศษ</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>3.617777777777777</v>
       </c>
     </row>
     <row r="155">
@@ -2440,11 +3210,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve">ตะปูตีผนังปูน ( ตะปูคอนกรีต , ตะปูตอกไม้ )( 100 กรัม ) </t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>5.56</v>
+          <t>120980</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>ตะปู ตะปูตอก ตะปูตอกปูน ตะปูตีผนังปูน มี 2 แบบ ( ตะปูคอนกรีต , ตะปูตอกไม้ )( 100 กรัม ) *เหล็กคุณภาพดี แข็งพิเศษ</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>3.617777777777777</v>
       </c>
     </row>
     <row r="156">
@@ -2453,11 +3228,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ตะปูรีเวท ตะปูยิงรีเวท ลูกรีเวท เม็ดย้ำรีเวท ลูกยิงรีเวท รีเวท รีเวทอลูมิเนียม ( จำนวน 100 ตัว )( มีให้เเลือกหลายขนาด )</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>35</v>
+          <t>120982</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ตะปู ตะปูตอก ตะปูตอกปูน ตะปูตีผนังปูน มี 2 แบบ ( ตะปูคอนกรีต , ตะปูตอกไม้ )( 100 กรัม ) *เหล็กคุณภาพดี แข็งพิเศษ</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>3.617777777777777</v>
       </c>
     </row>
     <row r="157">
@@ -2466,11 +3246,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ตะไบ ตะไบเหล็กหยาบ ตะไบบุ้ง พร้อมด้าม AT INDY ด้ามจับหุ้มยาง(10" (FW010))</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>54.3936</v>
+          <t>1209109</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>ตะปู ตะปูตอก ตะปูตอกปูน ตะปูตีผนังปูน มี 2 แบบ ( ตะปูคอนกรีต , ตะปูตอกไม้ )( 100 กรัม ) *เหล็กคุณภาพดี แข็งพิเศษ</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>3.617777777777777</v>
       </c>
     </row>
     <row r="158">
@@ -2479,11 +3264,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ตะไบ ตะไบเหล็กหยาบ ตะไบเหล็ก ตะไบบุ้ง พร้อมด้าม AT INDY มี 3 ขนาด ( 8 , 10 , 12 นิ้ว )(ขายเป็นโหล) ด้ามจับหุ้มยาง(8" (FW008))</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>49.8609</v>
+          <t>1209115</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ตะปูตีผนัง( ตะปูคอนกรีต , ตะปูตอกไม้ )( 100 กรัม ) </t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="159">
@@ -2492,11 +3282,16 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ตัวดูดกระจก ที่ดูดกระจก 1 มือจับ (พลาสติก)</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>66.57410000000002</v>
+          <t>1209117</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ตะปูตีผนังปูน ( ตะปูคอนกรีต , ตะปูตอกไม้ )( 100 กรัม ) </t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>5.56</v>
       </c>
     </row>
     <row r="160">
@@ -2505,11 +3300,16 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ตัวดูดกระจก ที่ดูดกระจก 1 มือจับ (อัลลอย)</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>110.6481</v>
+          <t>120882</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ตะปูรีเวท ตะปูยิงรีเวท ลูกรีเวท เม็ดย้ำรีเวท ลูกยิงรีเวท รีเวท รีเวทอลูมิเนียม ( จำนวน 100 ตัว )( มีให้เเลือกหลายขนาด )</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="161">
@@ -2518,11 +3318,16 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ถาดรองลูกกลิ้งทาสี หน้ากว้าง 6 นิ้ว (PS41200) INDY</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>27.19688879310343</v>
+          <t>120888</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>ตะปูรีเวท ตะปูยิงรีเวท ลูกรีเวท เม็ดย้ำรีเวท ลูกยิงรีเวท รีเวท รีเวทอลูมิเนียม ( จำนวน 100 ตัว )( มีให้เเลือกหลายขนาด )</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="162">
@@ -2531,11 +3336,16 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ถุงมือผ้าฝ้าย 100%  (สีขาว)</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>4.760769230769231</v>
+          <t>8851540012099</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>ตะไบ ตะไบเหล็กหยาบ ตะไบบุ้ง พร้อมด้าม AT INDY ด้ามจับหุ้มยาง(10" (FW010))</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>54.3936</v>
       </c>
     </row>
     <row r="163">
@@ -2544,11 +3354,16 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ถุงมือผ้าฝ้าย 100%  (สีดำ)</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>4.582800000000005</v>
+          <t>8851540012082</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>ตะไบ ตะไบเหล็กหยาบ ตะไบเหล็ก ตะไบบุ้ง พร้อมด้าม AT INDY มี 3 ขนาด ( 8 , 10 , 12 นิ้ว )(ขายเป็นโหล) ด้ามจับหุ้มยาง(8" (FW008))</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>49.8609</v>
       </c>
     </row>
     <row r="164">
@@ -2557,11 +3372,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ถุงมือยางสีส้ม SWAN ไซท์M (7-1/2")</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>20.835</v>
+          <t>110801001</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>ตัวดูดกระจก ที่ดูดกระจก 1 มือจับ (พลาสติก)</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>66.57410000000002</v>
       </c>
     </row>
     <row r="165">
@@ -2570,11 +3390,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ทินเนอร์ AAA 100% 400cc. BEEPRO</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>27.28201863354026</v>
+          <t>110802001</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>ตัวดูดกระจก ที่ดูดกระจก 1 มือจับ (อัลลอย)</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>110.6481</v>
       </c>
     </row>
     <row r="166">
@@ -2583,11 +3408,16 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ทีโอเออะคริลิกฟิลเลอร์ สีโป๊วผนัง TOA Acrylic Wall Putty ( ขนาด 1 ลิตร )</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>94.18777777777775</v>
+          <t>8851540016103</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>ถาดรองลูกกลิ้งทาสี หน้ากว้าง 6 นิ้ว (PS41200) INDY</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>27.19688879310343</v>
       </c>
     </row>
     <row r="167">
@@ -2596,11 +3426,16 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>น้ำมันก๊าด 100% ตรานกกางเขน ( ขนาด 400 cc )</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>42.75</v>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ถุงมือผ้าฝ้าย 100%  (สีขาว)</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>4.760769230769231</v>
       </c>
     </row>
     <row r="168">
@@ -2609,11 +3444,16 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>น้ำมันชักแห้ง 100% 400cc.</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>28.50400000000001</v>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>ถุงมือผ้าฝ้าย 100%  (สีดำ)</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>4.582800000000005</v>
       </c>
     </row>
     <row r="169">
@@ -2622,11 +3462,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>น้ำมันสน 100% 400cc.  DUAL FISH</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>24.29807860262005</v>
+          <t>1210060</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ถุงมือยางสีส้ม SWAN ไซท์M (7-1/2")</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20.835</v>
       </c>
     </row>
     <row r="170">
@@ -2635,11 +3480,16 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>น้ำมันอเนกประสงค์ น้ำมันโซแน็กซ์ น้ำยาครอบจักรวาล รุ่น MoS2 Oil Sonax ( ขนาด 200 มล. ) ช่วยกัดสนิทและป้องกันสนิท</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>87.5</v>
+          <t>8858946801876</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ทินเนอร์ AAA 100% 400cc. BEEPRO</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>27.28201863354026</v>
       </c>
     </row>
     <row r="171">
@@ -2648,11 +3498,16 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>น้ำยากำจัดปลวก สเตดฟาส 30เอสซี CHAINDRITE Stedfast 30SC (500 ml.)</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>354.08</v>
+          <t>8850106118503</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>ทีโอเออะคริลิกฟิลเลอร์ สีโป๊วผนัง TOA Acrylic Wall Putty ( ขนาด 1 ลิตร )</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>94.18777777777775</v>
       </c>
     </row>
     <row r="172">
@@ -2661,11 +3516,16 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>น้ำยากำจัดปลวก สเตดฟาส 30เอสซี CHAINDRITE Stedfast 30SC (ขนาด 250 ml.)</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>199.13</v>
+          <t>090614</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>น้ำมันก๊าด 100% ตรานกกางเขน ( ขนาด 400 cc )</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>42.75</v>
       </c>
     </row>
     <row r="173">
@@ -2674,11 +3534,16 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve">น้ำยาล้างท่อตัน ตราสิงห์ ( ขนาด 500 CC. ) </t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>39.66049382716049</v>
+          <t>090613</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>น้ำมันชักแห้ง 100% 400cc.</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>28.50400000000001</v>
       </c>
     </row>
     <row r="174">
@@ -2687,11 +3552,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามยาว 6 นิ้ว AT INDY No.10 (B210)</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>37.16905</v>
+          <t>8858946801883</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>น้ำมันสน 100% 400cc.  DUAL FISH</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>24.29807860262005</v>
       </c>
     </row>
     <row r="175">
@@ -2700,11 +3570,16 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามยาว 6 นิ้ว AT INDY No.12 (B212)</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>37.16905</v>
+          <t>8851282303035</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>น้ำมันอเนกประสงค์ น้ำมันโซแน็กซ์ น้ำยาครอบจักรวาล รุ่น MoS2 Oil Sonax ( ขนาด 200 มล. ) ช่วยกัดสนิทและป้องกันสนิท</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="176">
@@ -2713,11 +3588,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามยาว 6 นิ้ว AT INDY No.13 (B213)</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>37.1687</v>
+          <t>8851495005283</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>น้ำยากำจัดปลวก สเตดฟาส 30เอสซี CHAINDRITE Stedfast 30SC (500 ml.)</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>354.08</v>
       </c>
     </row>
     <row r="177">
@@ -2726,11 +3606,16 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามยาว 6 นิ้ว AT INDY No.14 (B214)</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>37.1691</v>
+          <t>8851495005269</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>น้ำยากำจัดปลวก สเตดฟาส 30เอสซี CHAINDRITE Stedfast 30SC (ขนาด 250 ml.)</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>199.13</v>
       </c>
     </row>
     <row r="178">
@@ -2739,11 +3624,16 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามยาว 6 นิ้ว AT INDY No.15 (B215)</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>48.04770000000001</v>
+          <t>121211</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">น้ำยาล้างท่อตัน ตราสิงห์ ( ขนาด 500 CC. ) </t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>39.66049382716049</v>
       </c>
     </row>
     <row r="179">
@@ -2752,11 +3642,16 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามยาว 6 นิ้ว AT INDY No.17 (B217)</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>48.0478</v>
+          <t>8851540014888</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามยาว 6 นิ้ว AT INDY No.10 (B210)</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>37.16905</v>
       </c>
     </row>
     <row r="180">
@@ -2765,11 +3660,16 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามสั้น AT INDY NO.15 (B099)</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>49.8595</v>
+          <t>8851540014901</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามยาว 6 นิ้ว AT INDY No.12 (B212)</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>37.16905</v>
       </c>
     </row>
     <row r="181">
@@ -2778,11 +3678,16 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามสั้น AT INDY No.13 (ฺB105)</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>49.8609</v>
+          <t>8851540014918</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามยาว 6 นิ้ว AT INDY No.13 (B213)</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>37.1687</v>
       </c>
     </row>
     <row r="182">
@@ -2791,11 +3696,16 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามสั้น AT INDY No.8 (B100)</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>36.26246666666667</v>
+          <t>8851540014925</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามยาว 6 นิ้ว AT INDY No.14 (B214)</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>37.1691</v>
       </c>
     </row>
     <row r="183">
@@ -2804,11 +3714,16 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามสั้น AT INDY No.9 (B101)</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>36.2625</v>
+          <t>8851540014932</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามยาว 6 นิ้ว AT INDY No.15 (B215)</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>48.04770000000001</v>
       </c>
     </row>
     <row r="184">
@@ -2817,11 +3732,16 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>บล็อคตัววาย AT INDY No.9,11,13mm. (B121)</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>62.5528</v>
+          <t>8851540014956</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามยาว 6 นิ้ว AT INDY No.17 (B217)</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>48.0478</v>
       </c>
     </row>
     <row r="185">
@@ -2830,11 +3750,16 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>บล็อคตัววาย ความสูง 5 นิ้ว AT INDY No.10,11,13 (B303)</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>52.5805</v>
+          <t>8851540006463</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามสั้น AT INDY NO.15 (B099)</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>49.8595</v>
       </c>
     </row>
     <row r="186">
@@ -2843,11 +3768,16 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>บล็อคตัววาย ความสูง 5 นิ้ว AT INDY No.12,14,17 (B305)</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>58.9264</v>
+          <t>8851540003943</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามสั้น AT INDY No.13 (ฺB105)</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>49.8609</v>
       </c>
     </row>
     <row r="187">
@@ -2856,11 +3786,16 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>บล็อคตัววาย ความสูง 5 นิ้ว AT INDY No.8,9,10 (B301)</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>43.5149</v>
+          <t>8851540003899</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามสั้น AT INDY No.8 (B100)</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>36.26246666666667</v>
       </c>
     </row>
     <row r="188">
@@ -2869,11 +3804,16 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>บอสนี่วอลล์พัตตี้ สีโป๊วผนัง ( ขนาด 1.5 KG. ) Bosny Wall Putty No.219</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>66.50399999999999</v>
+          <t>8851540003905</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>บล็อคตัวที บล็อกหกเหลี่ยม ด้ามสั้น AT INDY No.9 (B101)</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>36.2625</v>
       </c>
     </row>
     <row r="189">
@@ -2882,11 +3822,16 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>บอสนี่วอลล์พัตตี้ สีโป๊วผนัง (ขนาด 0.5 KG.) Bosny Wall Putty No.219</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>38.01647058823527</v>
+          <t>8851540004797</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>บล็อคตัววาย AT INDY No.9,11,13mm. (B121)</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>62.5528</v>
       </c>
     </row>
     <row r="190">
@@ -2895,11 +3840,16 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ประแจปากตาย 2 ข้าง เกรด A  AT INDY 10 x 11 มม. (EA02)</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>31.72971666666666</v>
+          <t>8851540015007</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>บล็อคตัววาย ความสูง 5 นิ้ว AT INDY No.10,11,13 (B303)</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>52.5805</v>
       </c>
     </row>
     <row r="191">
@@ -2908,11 +3858,16 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ประแจปากตาย 2 ข้าง เกรด A INDY ขนาด 12 x 13 มม. (EA03)</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>36.2625</v>
+          <t>8851540015021</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>บล็อคตัววาย ความสูง 5 นิ้ว AT INDY No.12,14,17 (B305)</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>58.9264</v>
       </c>
     </row>
     <row r="192">
@@ -2921,11 +3876,16 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ประแจปากตาย 2 ข้าง เกรด A INDY ขนาด 6 x 7 มม. (EA00)</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>21.7576</v>
+          <t>8851540014987</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>บล็อคตัววาย ความสูง 5 นิ้ว AT INDY No.8,9,10 (B301)</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>43.5149</v>
       </c>
     </row>
     <row r="193">
@@ -2934,11 +3894,16 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ประแจปากตาย 2 ข้าง เกรด A INDY ขนาด 8 x 9 มม. (EA01)</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>27.19691666666666</v>
+          <t>8850747219324</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>บอสนี่วอลล์พัตตี้ สีโป๊วผนัง ( ขนาด 1.5 KG. ) Bosny Wall Putty No.219</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>66.50399999999999</v>
       </c>
     </row>
     <row r="194">
@@ -2947,11 +3912,16 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ประแจปากตาย 2ข้าง เกรดA 14 x 15 มม. (EA04) AT INDY</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>40.7953</v>
+          <t>8850747219119</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>บอสนี่วอลล์พัตตี้ สีโป๊วผนัง (ขนาด 0.5 KG.) Bosny Wall Putty No.219</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>38.01647058823527</v>
       </c>
     </row>
     <row r="195">
@@ -2960,11 +3930,16 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ประแจปากตายข้าง แหวนข้าง 10 มม.(WA01) INDY</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>36.2625</v>
+          <t>8851540010828</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>ประแจปากตาย 2 ข้าง เกรด A  AT INDY 10 x 11 มม. (EA02)</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>31.72971666666666</v>
       </c>
     </row>
     <row r="196">
@@ -2973,11 +3948,16 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ประแจหกเหลี่ยม หัวดาว XL 9 ตัว/ชุด AT INDY (A86)</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>145.05</v>
+          <t>8851540010835</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>ประแจปากตาย 2 ข้าง เกรด A INDY ขนาด 12 x 13 มม. (EA03)</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>36.2625</v>
       </c>
     </row>
     <row r="197">
@@ -2986,11 +3966,16 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ประแจเลื่อน  ประแจอเนกประสงค์ AT INDY  8" (A801)</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>113.3204</v>
+          <t>8851540010804</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>ประแจปากตาย 2 ข้าง เกรด A INDY ขนาด 6 x 7 มม. (EA00)</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>21.7576</v>
       </c>
     </row>
     <row r="198">
@@ -2999,11 +3984,16 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ประแจเลื่อน ประแจปลายแหวน INDY ขนาด 10 นิ้ว(A901)</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>154.1156</v>
+          <t>8851540010811</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>ประแจปากตาย 2 ข้าง เกรด A INDY ขนาด 8 x 9 มม. (EA01)</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>27.19691666666666</v>
       </c>
     </row>
     <row r="199">
@@ -3012,11 +4002,16 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ประแจเลื่อน ประแจอเนกประสงค์ 6" (87106) AT INDY</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>72.52500000000001</v>
+          <t>8851540010842</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>ประแจปากตาย 2ข้าง เกรดA 14 x 15 มม. (EA04) AT INDY</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>40.7953</v>
       </c>
     </row>
     <row r="200">
@@ -3025,11 +4020,16 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ประแจเลื่อน ประแจอเนกประสงค์ AT INDY  6" (A701)</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>77.0579</v>
+          <t>8851540010965</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>ประแจปากตายข้าง แหวนข้าง 10 มม.(WA01) INDY</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>36.2625</v>
       </c>
     </row>
     <row r="201">
@@ -3038,11 +4038,16 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ปลั๊กซีเมนต์แห้งเร็วอุดน้ำรั่วขณะไหล จระเข้ ( น้ำหนัก 1 KG. )</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>109.6888372093022</v>
+          <t>8851540015816</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>ประแจหกเหลี่ยม หัวดาว XL 9 ตัว/ชุด AT INDY (A86)</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>145.05</v>
       </c>
     </row>
     <row r="202">
@@ -3051,11 +4056,16 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve">ปลั๊กซีเมนต์แห้งเร็วอุดน้ำรั่วขณะไหล จระเข้ ( น้ำหนัก 4.5 KG. ) </t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v>444.23</v>
+          <t>8851540009532</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>ประแจเลื่อน  ประแจอเนกประสงค์ AT INDY  8" (A801)</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>113.3204</v>
       </c>
     </row>
     <row r="203">
@@ -3064,11 +4074,16 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve">ปลั๊กอุดเกลียวนอก PVC ขนาด 1/2" SCG </t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>1.33</v>
+          <t>8851540009549</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>ประแจเลื่อน ประแจปลายแหวน INDY ขนาด 10 นิ้ว(A901)</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>154.1156</v>
       </c>
     </row>
     <row r="204">
@@ -3077,11 +4092,16 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ปากกาจับชิ้นงานตัวซีขนาด 3 นิ้ว</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>52.1015</v>
+          <t>8851540014550</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>ประแจเลื่อน ประแจอเนกประสงค์ 6" (87106) AT INDY</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>72.52500000000001</v>
       </c>
     </row>
     <row r="205">
@@ -3090,11 +4110,16 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ปืนกาว ปืนกาวร้อน ปืนยิงกาวแท่งไฟฟ้า AT INDY เนื้อกาวละลายเร็ว(กาวแท่งเล็ก 12 แท่ง)(A46)</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>36.2625</v>
+          <t>8851540009525</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>ประแจเลื่อน ประแจอเนกประสงค์ AT INDY  6" (A701)</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>77.0579</v>
       </c>
     </row>
     <row r="206">
@@ -3103,11 +4128,16 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ปืนยิงกาวซิลิโคน อคิลิค ปืนยิงแด๊ป (ด้ามพลาสติก) INDY (C121)</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v>58.9265</v>
+          <t>8852278010913</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>ปลั๊กซีเมนต์แห้งเร็วอุดน้ำรั่วขณะไหล จระเข้ ( น้ำหนัก 1 KG. )</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>109.6888372093022</v>
       </c>
     </row>
     <row r="207">
@@ -3116,11 +4146,16 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ปืนยิงซิลิโคน ปืนยิงกาว (คุ้มค่า)</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>31.7743</v>
+          <t>8852278010906</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ปลั๊กซีเมนต์แห้งเร็วอุดน้ำรั่วขณะไหล จระเข้ ( น้ำหนัก 4.5 KG. ) </t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>444.23</v>
       </c>
     </row>
     <row r="208">
@@ -3129,11 +4164,16 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ปืนยิงน้ำยาเสียบเหล็ก ปีนฉีดน้ำยา ขนาด 400 ml. ทนทาน แข็งแรง ใช้งานง่าย</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>957.65</v>
+          <t>1105101</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ปลั๊กอุดเกลียวนอก PVC ขนาด 1/2" SCG </t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="209">
@@ -3142,11 +4182,16 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ปูนปลาสเตอร์ ตรานกอินทรีย์ ( ขนาด 1 KG. )</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>9.375</v>
+          <t>052101003</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>ปากกาจับชิ้นงานตัวซีขนาด 3 นิ้ว</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>52.1015</v>
       </c>
     </row>
     <row r="210">
@@ -3155,11 +4200,16 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ปูนเสือ SCG ปูนซ่อมอเนกประสงค์สำเร็จรูป ( ขนาด 5 KG.)</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
-        <v>32.71852040816279</v>
+          <t>8851540000911</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>ปืนกาว ปืนกาวร้อน ปืนยิงกาวแท่งไฟฟ้า AT INDY เนื้อกาวละลายเร็ว(กาวแท่งเล็ก 12 แท่ง)(A46)</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>36.2625</v>
       </c>
     </row>
     <row r="211">
@@ -3168,11 +4218,16 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve">ผงกำจัดปลวก ตราเครื่องบิน ( ขนาด 227 กรัม) </t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v>129.8573333333333</v>
+          <t>8851540003325</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>ปืนยิงกาวซิลิโคน อคิลิค ปืนยิงแด๊ป (ด้ามพลาสติก) INDY (C121)</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>58.9265</v>
       </c>
     </row>
     <row r="212">
@@ -3181,11 +4236,16 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve">ผงเคมีอุดน้ำรั่ว Bosny vit ผงซีเมนต์อุดน้ำรั่วทันที ( ขนาด 1 KG. ) </t>
-        </is>
-      </c>
-      <c r="C212" t="n">
-        <v>150</v>
+          <t>050804002</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>ปืนยิงซิลิโคน ปืนยิงกาว (คุ้มค่า)</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>31.7743</v>
       </c>
     </row>
     <row r="213">
@@ -3194,11 +4254,16 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ผ้าฉาบยิปซั่ม ผ้ายิปซั่ม หน้าเล็ก (ขนาด 1" x 2.5ม.) (3 ม้วน/แพ็ค) GREEN APPLE</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>13.33848837209302</v>
+          <t>4312826243-1670903544724-0</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>ปืนยิงน้ำยาเสียบเหล็ก ปีนฉีดน้ำยา ขนาด 400 ml. ทนทาน แข็งแรง ใช้งานง่าย</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>957.65</v>
       </c>
     </row>
     <row r="214">
@@ -3207,11 +4272,16 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ฝาครอบ PVC ขนาด 1/2" SCG</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
-        <v>2.66</v>
+          <t>20004</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>ปูนปลาสเตอร์ ตรานกอินทรีย์ ( ขนาด 1 KG. )</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>9.375</v>
       </c>
     </row>
     <row r="215">
@@ -3220,11 +4290,16 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>มีดคัดเตอร์ คัดเตอร์อเนกประสงค์ ขนาด 18 มม. (15222)</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
-        <v>31.7297</v>
+          <t>0487</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>ปูนเสือ SCG ปูนซ่อมอเนกประสงค์สำเร็จรูป ( ขนาด 5 KG.)</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>32.71852040816279</v>
       </c>
     </row>
     <row r="216">
@@ -3233,11 +4308,16 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve">มีดคัดเตอร์ คัดเตอร์อเนกประสงค์ ขนาด 18มม. AT INDY (15220) </t>
-        </is>
-      </c>
-      <c r="C216" t="n">
-        <v>27.1969</v>
+          <t>121530</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ผงกำจัดปลวก ตราเครื่องบิน ( ขนาด 227 กรัม) </t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>129.8573333333333</v>
       </c>
     </row>
     <row r="217">
@@ -3246,11 +4326,16 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>มีดคัดเตอร์ คัดเตอร์เอนกประสงค์ ขนาด 25 มม. (15159C)</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
-        <v>108.78735</v>
+          <t>8850747216132</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ผงเคมีอุดน้ำรั่ว Bosny vit ผงซีเมนต์อุดน้ำรั่วทันที ( ขนาด 1 KG. ) </t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="218">
@@ -3259,11 +4344,16 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>มีดคัดเตอร์ คัดเตอร์เอนกประสงค์ ขนาด 9 มม. (15157S)</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
-        <v>45.32808</v>
+          <t>121509</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>ผ้าฉาบยิปซั่ม ผ้ายิปซั่ม หน้าเล็ก (ขนาด 1" x 2.5ม.) (3 ม้วน/แพ็ค) GREEN APPLE</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>13.33848837209302</v>
       </c>
     </row>
     <row r="219">
@@ -3272,11 +4362,16 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>มีดคัดเตอร์ คัตเตอร์อเนกประสงค์ ขนาด18 มม.(15219)</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>29.01</v>
+          <t>110514</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>ฝาครอบ PVC ขนาด 1/2" SCG</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>2.66</v>
       </c>
     </row>
     <row r="220">
@@ -3285,11 +4380,16 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve">มีดคัตเตอร์อเนกประสงค์  2 ระบบ ขนาด 9 มม.(15160C) INDY </t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v>131.4514</v>
+          <t>8851540016080</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>มีดคัดเตอร์ คัดเตอร์อเนกประสงค์ ขนาด 18 มม. (15222)</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>31.7297</v>
       </c>
     </row>
     <row r="221">
@@ -3298,11 +4398,16 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ระดับน้ำ แบบกล่องมีสเกลและแม่เหล็ก INDY รุ่น Economic ขนาด 16 นิ้ว (32616)</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v>122.3858</v>
+          <t>8851540015724</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">มีดคัดเตอร์ คัดเตอร์อเนกประสงค์ ขนาด 18มม. AT INDY (15220) </t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>27.1969</v>
       </c>
     </row>
     <row r="222">
@@ -3311,11 +4416,16 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ระดับน้ำ แบบกล่องมีสเกลและแม่เหล็ก INDY รุ่น Economic ขนาด 24 นิ้ว (32624)</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
-        <v>176.7796</v>
+          <t>6920341201321</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>มีดคัดเตอร์ คัดเตอร์เอนกประสงค์ ขนาด 25 มม. (15159C)</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>108.78735</v>
       </c>
     </row>
     <row r="223">
@@ -3324,11 +4434,16 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ระดับน้ำตอปิโด แบบแม่เหล็ก รุ่น 42290C (Classic) ขนาด 9 นิ้ว INDY</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v>54.3937</v>
+          <t>6920341101034</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>มีดคัดเตอร์ คัดเตอร์เอนกประสงค์ ขนาด 9 มม. (15157S)</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>45.32808</v>
       </c>
     </row>
     <row r="224">
@@ -3337,11 +4452,16 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve">ระดับน้ำตอปิโด แบบแม่เหล็ก รุ่น 42291C (Standard) ขนาด 9 นิ้ว INDY </t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>54.393725</v>
+          <t>8851540013805</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>มีดคัดเตอร์ คัตเตอร์อเนกประสงค์ ขนาด18 มม.(15219)</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>29.01</v>
       </c>
     </row>
     <row r="225">
@@ -3350,11 +4470,16 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve">ระดับน้ำตอปิโด แบบแม่เหล็ก รุ่น 42293C (Protection) ขนาด 9 นิ้ว หุ้มยาง INDY  </t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>67.99209999999999</v>
+          <t>8851540012204</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">มีดคัตเตอร์อเนกประสงค์  2 ระบบ ขนาด 9 มม.(15160C) INDY </t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>131.4514</v>
       </c>
     </row>
     <row r="226">
@@ -3363,11 +4488,16 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ระดับน้ำอลูมิเนียม I-Beam รุ่น Standard ขนาด 12 นิ้ว INDY (98012)</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
-        <v>72.52493333333334</v>
+          <t>8851540016608</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>ระดับน้ำ แบบกล่องมีสเกลและแม่เหล็ก INDY รุ่น Economic ขนาด 16 นิ้ว (32616)</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>122.3858</v>
       </c>
     </row>
     <row r="227">
@@ -3376,11 +4506,16 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ระดับน้ำอลูมิเนียม I-Beam รุ่น Standard ขนาด 16 นิ้ว INDY (98016)</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
-        <v>90.6562</v>
+          <t>8851540016615</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>ระดับน้ำ แบบกล่องมีสเกลและแม่เหล็ก INDY รุ่น Economic ขนาด 24 นิ้ว (32624)</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>176.7796</v>
       </c>
     </row>
     <row r="228">
@@ -3389,11 +4524,16 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ระดับน้ำอลูมิเนียม I-Beam รุ่น Standard ขนาด 24 นิ้ว INDY (98024)</t>
-        </is>
-      </c>
-      <c r="C228" t="n">
-        <v>113.320117</v>
+          <t>6912980518229</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>ระดับน้ำตอปิโด แบบแม่เหล็ก รุ่น 42290C (Classic) ขนาด 9 นิ้ว INDY</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>54.3937</v>
       </c>
     </row>
     <row r="229">
@@ -3402,11 +4542,16 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ระดับน้ำแบบกล่อง มีสเกลและแม่เหล็ก 24 นิ้ว (42624) สีเหลือง</t>
-        </is>
-      </c>
-      <c r="C229" t="n">
-        <v>267.4358</v>
+          <t>8851540005053</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ระดับน้ำตอปิโด แบบแม่เหล็ก รุ่น 42291C (Standard) ขนาด 9 นิ้ว INDY </t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>54.393725</v>
       </c>
     </row>
     <row r="230">
@@ -3415,11 +4560,16 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ระดับน้ำแบบกล่อง มีสเกลและแม่เหล็ก ขนาด 18 นิ้ว (42618) สีดำ</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>235.7061</v>
+          <t>8851540012440</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ระดับน้ำตอปิโด แบบแม่เหล็ก รุ่น 42293C (Protection) ขนาด 9 นิ้ว หุ้มยาง INDY  </t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>67.99209999999999</v>
       </c>
     </row>
     <row r="231">
@@ -3428,11 +4578,16 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ระดับน้ำแบบกล่อง มีสเกลและแม่เหล็ก ขนาด 48 นิ้ว (42648) สีเหลือง</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
-        <v>353.55915</v>
+          <t>8851540013812</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>ระดับน้ำอลูมิเนียม I-Beam รุ่น Standard ขนาด 12 นิ้ว INDY (98012)</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>72.52493333333334</v>
       </c>
     </row>
     <row r="232">
@@ -3441,11 +4596,16 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ลูกกลิ้งทาสี 4 นิ้ว ด้ามยาว 18 นิ้ว รุ่น HRC30104-18 INDY</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
-        <v>45.3277</v>
+          <t>8851540013829</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>ระดับน้ำอลูมิเนียม I-Beam รุ่น Standard ขนาด 16 นิ้ว INDY (98016)</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>90.6562</v>
       </c>
     </row>
     <row r="233">
@@ -3454,11 +4614,16 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve">ลูกกลิ้งทาสี INDY ขนาด 4" ด้ามยาว 12" (HRC30104-12) </t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v>40.79521875</v>
+          <t>8851540013836</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>ระดับน้ำอลูมิเนียม I-Beam รุ่น Standard ขนาด 24 นิ้ว INDY (98024)</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>113.320117</v>
       </c>
     </row>
     <row r="234">
@@ -3467,11 +4632,16 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ลูกกลิ้งทาสี ชนิดโฟม 4 นิ้ว INDY ขนาดด้าม 18 นิ้ว(HRF30104-18)</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
-        <v>45.3281</v>
+          <t>8851540012242</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>ระดับน้ำแบบกล่อง มีสเกลและแม่เหล็ก 24 นิ้ว (42624) สีเหลือง</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>267.4358</v>
       </c>
     </row>
     <row r="235">
@@ -3480,11 +4650,16 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ลูกกลิ้งทาสี ชุดด้าม + ลูกกลิ้งทาสี ชนิดโฟม 4 นิ้ว AT INDY มี 3 ขนาด ( 12 , 18 , 24 นิ้ว ) * อุ้มสีได้ดี สีไม่หยด *(24" (HRF3010</t>
-        </is>
-      </c>
-      <c r="C235" t="n">
-        <v>49.8609</v>
+          <t>8851540012235</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>ระดับน้ำแบบกล่อง มีสเกลและแม่เหล็ก ขนาด 18 นิ้ว (42618) สีดำ</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>235.7061</v>
       </c>
     </row>
     <row r="236">
@@ -3493,11 +4668,16 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ลูกกลิ้งทาสี+ด้าม ขนสักกะหลาด 7" (HRC30117) INDY</t>
-        </is>
-      </c>
-      <c r="C236" t="n">
-        <v>72.52498333333334</v>
+          <t>8851540012259</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>ระดับน้ำแบบกล่อง มีสเกลและแม่เหล็ก ขนาด 48 นิ้ว (42648) สีเหลือง</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>353.55915</v>
       </c>
     </row>
     <row r="237">
@@ -3506,11 +4686,16 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ลูกกลิ้งทาสี+ด้าม ขนสักกะหลาด 9" (HRC30119) INDY</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
-        <v>86.12336666666666</v>
+          <t>8851540013188</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ลูกกลิ้งทาสี 4 นิ้ว ด้ามยาว 18 นิ้ว รุ่น HRC30104-18 INDY</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>45.3277</v>
       </c>
     </row>
     <row r="238">
@@ -3519,11 +4704,16 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ลูกกลิ้งทาสีขนสักกะหลาด 4 นิ้ว INDY ด้ามยาว 24 นิ้ว(HRC30114-24)</t>
-        </is>
-      </c>
-      <c r="C238" t="n">
-        <v>49.86039999999999</v>
+          <t>8851540011371</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ลูกกลิ้งทาสี INDY ขนาด 4" ด้ามยาว 12" (HRC30104-12) </t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>40.79521875</v>
       </c>
     </row>
     <row r="239">
@@ -3532,11 +4722,16 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ลูกกลิ้งทาสีขนเคมี 2" x 11" (HRC20110) INDY (2)</t>
-        </is>
-      </c>
-      <c r="C239" t="n">
-        <v>31.72969095238095</v>
+          <t>8851540011740</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>ลูกกลิ้งทาสี ชนิดโฟม 4 นิ้ว INDY ขนาดด้าม 18 นิ้ว(HRF30104-18)</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>45.3281</v>
       </c>
     </row>
     <row r="240">
@@ -3545,11 +4740,16 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ลูกกลิ้งทาสีขนเคมี 2" ด้ามยาว 11" (HRC20110) INDY</t>
-        </is>
-      </c>
-      <c r="C240" t="n">
-        <v>31.72955583333332</v>
+          <t>8851540011757</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ลูกกลิ้งทาสี ชุดด้าม + ลูกกลิ้งทาสี ชนิดโฟม 4 นิ้ว AT INDY มี 3 ขนาด ( 12 , 18 , 24 นิ้ว ) * อุ้มสีได้ดี สีไม่หยด *(24" (HRF3010</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>49.8609</v>
       </c>
     </row>
     <row r="241">
@@ -3558,11 +4758,16 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ลูกกลิ้งทาสีอเนกประสงค์ ทาสีน้ำ สีน้ำมัน SCALA ขนาด 10 นิ้ว</t>
-        </is>
-      </c>
-      <c r="C241" t="n">
-        <v>28.38451612903226</v>
+          <t>8851540014345</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>ลูกกลิ้งทาสี+ด้าม ขนสักกะหลาด 7" (HRC30117) INDY</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>72.52498333333334</v>
       </c>
     </row>
     <row r="242">
@@ -3571,11 +4776,16 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ลูกกลิ้งทาสีอเนกประสงค์ ทาสีน้ำ สีน้ำมัน SCALA ขนาด 4 นิ้ว</t>
-        </is>
-      </c>
-      <c r="C242" t="n">
-        <v>24</v>
+          <t>8851540014352</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>ลูกกลิ้งทาสี+ด้าม ขนสักกะหลาด 9" (HRC30119) INDY</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>86.12336666666666</v>
       </c>
     </row>
     <row r="243">
@@ -3584,11 +4794,16 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ลูกกลิ้งทาสีอเนกประสงค์ ทาสีน้ำ สีน้ำมัน SCALA ขนาด 7 นิ้ว</t>
-        </is>
-      </c>
-      <c r="C243" t="n">
-        <v>26</v>
+          <t>8851540013966</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>ลูกกลิ้งทาสีขนสักกะหลาด 4 นิ้ว INDY ด้ามยาว 24 นิ้ว(HRC30114-24)</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>49.86039999999999</v>
       </c>
     </row>
     <row r="244">
@@ -3597,11 +4812,16 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ศิลาเสก น้ำยากันซึม น้ำยากันรั่ว น้ำยาผสมกันรั่วซึม น้ำยาผสมคอนกรีต (Silasec) ช่างใหญ่ ( ขนาด 1 ลิตร ) กันซึมไม่มีรั่ว</t>
-        </is>
-      </c>
-      <c r="C244" t="n">
-        <v>127.48</v>
+          <t>8851540015151-1</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>ลูกกลิ้งทาสีขนเคมี 2" x 11" (HRC20110) INDY (2)</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>31.72969095238095</v>
       </c>
     </row>
     <row r="245">
@@ -3610,11 +4830,16 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>สกรู สกรูยิงฝ้า สกรูไดวอล์ Drywall มี 3 แบบ (สกรูดำ,สกรูหัวร่ม สกรูสีรุ้ง)(มีให้เเลือกหลายขนาด) เหล็กคุณภาพดี แข็งพิเศษ</t>
-        </is>
-      </c>
-      <c r="C245" t="n">
-        <v>9.800000000000001</v>
+          <t>8851540015151</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>ลูกกลิ้งทาสีขนเคมี 2" ด้ามยาว 11" (HRC20110) INDY</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>31.72955583333332</v>
       </c>
     </row>
     <row r="246">
@@ -3623,11 +4848,16 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>สกรูดำ สกรูยิงฝ้า Drywall Screws(ขนาด 6x1 นิ้ว)</t>
-        </is>
-      </c>
-      <c r="C246" t="n">
-        <v>39.33492753623193</v>
+          <t>1221110</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>ลูกกลิ้งทาสีอเนกประสงค์ ทาสีน้ำ สีน้ำมัน SCALA ขนาด 10 นิ้ว</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>28.38451612903226</v>
       </c>
     </row>
     <row r="247">
@@ -3636,11 +4866,16 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>สกรูปลายแหลม น๊อตปลายแหลม สกรูยึดไม้ฝา สกรูยิงไม้ สกรูยึดโครงเหล็ก ( จำนวน 50 ตัว )( ขนาด 1 นิ้ว ) *หัวเจาะแข็งแรงและคม</t>
-        </is>
-      </c>
-      <c r="C247" t="n">
-        <v>0.28</v>
+          <t>1221112</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>ลูกกลิ้งทาสีอเนกประสงค์ ทาสีน้ำ สีน้ำมัน SCALA ขนาด 4 นิ้ว</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="248">
@@ -3649,11 +4884,16 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>สกรูเกลียวปล่อย #7x1-1/2" ( จำนวน 50 ตัว )</t>
-        </is>
-      </c>
-      <c r="C248" t="n">
-        <v>14.5</v>
+          <t>1221111</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>ลูกกลิ้งทาสีอเนกประสงค์ ทาสีน้ำ สีน้ำมัน SCALA ขนาด 7 นิ้ว</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="249">
@@ -3662,11 +4902,16 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>สามทาง PVC ขนาด 1/2" SCG</t>
-        </is>
-      </c>
-      <c r="C249" t="n">
-        <v>4.32</v>
+          <t>8858650800042</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>ศิลาเสก น้ำยากันซึม น้ำยากันรั่ว น้ำยาผสมกันรั่วซึม น้ำยาผสมคอนกรีต (Silasec) ช่างใหญ่ ( ขนาด 1 ลิตร ) กันซึมไม่มีรั่ว</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>127.48</v>
       </c>
     </row>
     <row r="250">
@@ -3675,11 +4920,16 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>สิ่วช่างไม้ ขนาด  5/8" / 16 มม. (C112) INDY</t>
-        </is>
-      </c>
-      <c r="C250" t="n">
-        <v>49.86089999999999</v>
+          <t>122439</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>สกรู สกรูยิงฝ้า สกรูไดวอล์ Drywall มี 3 แบบ (สกรูดำ,สกรูหัวร่ม สกรูสีรุ้ง)(มีให้เเลือกหลายขนาด) เหล็กคุณภาพดี แข็งพิเศษ</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="251">
@@ -3688,11 +4938,16 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>สิ่วช่างไม้ ขนาด 1" / 25 มม. (C113) INDY</t>
-        </is>
-      </c>
-      <c r="C251" t="n">
-        <v>58.926505</v>
+          <t>122438</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>สกรูดำ สกรูยิงฝ้า Drywall Screws(ขนาด 6x1 นิ้ว)</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>39.33492753623193</v>
       </c>
     </row>
     <row r="252">
@@ -3701,11 +4956,16 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>สิ่วช่างไม้ ขนาด 1.1/4 นิ้ว / 32 มม. (C114) INDY</t>
-        </is>
-      </c>
-      <c r="C252" t="n">
-        <v>63.45929999999998</v>
+          <t>1212409</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>สกรูปลายแหลม น๊อตปลายแหลม สกรูยึดไม้ฝา สกรูยิงไม้ สกรูยึดโครงเหล็ก ( จำนวน 50 ตัว )( ขนาด 1 นิ้ว ) *หัวเจาะแข็งแรงและคม</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="253">
@@ -3714,11 +4974,16 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>สิ่วช่างไม้ ขนาด 1/2" / 12 มม.(C108) INDY</t>
-        </is>
-      </c>
-      <c r="C253" t="n">
-        <v>45.32807142857143</v>
+          <t>121264</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>สกรูเกลียวปล่อย #7x1-1/2" ( จำนวน 50 ตัว )</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="254">
@@ -3727,11 +4992,16 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>สิ่วช่างไม้ ขนาด 1/4" / 6 มม. (C109) INDY</t>
-        </is>
-      </c>
-      <c r="C254" t="n">
-        <v>40.795175</v>
+          <t>110561</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>สามทาง PVC ขนาด 1/2" SCG</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>4.32</v>
       </c>
     </row>
     <row r="255">
@@ -3740,11 +5010,16 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>สิ่วช่างไม้ ขนาด 3/4" / 18 มม. (C110) INDY</t>
-        </is>
-      </c>
-      <c r="C255" t="n">
-        <v>49.86090000000001</v>
+          <t>8851540001321</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>สิ่วช่างไม้ ขนาด  5/8" / 16 มม. (C112) INDY</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>49.86089999999999</v>
       </c>
     </row>
     <row r="256">
@@ -3753,11 +5028,16 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>สิ่วช่างไม้ ขนาด 3/8" / 10 มม.(C111) INDY</t>
-        </is>
-      </c>
-      <c r="C256" t="n">
-        <v>45.32806666666667</v>
+          <t>8851540001161</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>สิ่วช่างไม้ ขนาด 1" / 25 มม. (C113) INDY</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>58.926505</v>
       </c>
     </row>
     <row r="257">
@@ -3766,11 +5046,16 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>สีทองอะคริลิค สีทองน้ำมันอะคริลิค ผิวเรียบเนียน รุ่น AG-123 HATO ( ขนาด 0.1 ลิตร ) อยู่ได้ทนนานนับ 10 ปีโดยไม่หมองดำ</t>
-        </is>
-      </c>
-      <c r="C257" t="n">
-        <v>65</v>
+          <t>8851540011900</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>สิ่วช่างไม้ ขนาด 1.1/4 นิ้ว / 32 มม. (C114) INDY</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>63.45929999999998</v>
       </c>
     </row>
     <row r="258">
@@ -3779,11 +5064,16 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 266 สีรองพื้นเทา (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C258" t="n">
-        <v>33.39333333333332</v>
+          <t>8851540001086</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>สิ่วช่างไม้ ขนาด 1/2" / 12 มม.(C108) INDY</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>45.32807142857143</v>
       </c>
     </row>
     <row r="259">
@@ -3792,11 +5082,16 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 299 ROSE (ขนาด 400 cc)</t>
-        </is>
-      </c>
-      <c r="C259" t="n">
-        <v>32.788</v>
+          <t>8851540001307</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>สิ่วช่างไม้ ขนาด 1/4" / 6 มม. (C109) INDY</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>40.795175</v>
       </c>
     </row>
     <row r="260">
@@ -3805,11 +5100,16 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 900 สีขาว (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C260" t="n">
-        <v>32.24599999999997</v>
+          <t>8851540001093</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>สิ่วช่างไม้ ขนาด 3/4" / 18 มม. (C110) INDY</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>49.86090000000001</v>
       </c>
     </row>
     <row r="261">
@@ -3818,11 +5118,16 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 910 สีดำ (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C261" t="n">
-        <v>32.58085714285712</v>
+          <t>8851540001314</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>สิ่วช่างไม้ ขนาด 3/8" / 10 มม.(C111) INDY</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>45.32806666666667</v>
       </c>
     </row>
     <row r="262">
@@ -3831,11 +5136,16 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 911 สีแดง RED (ขนาด 400 cc)</t>
-        </is>
-      </c>
-      <c r="C262" t="n">
-        <v>33.97166666666666</v>
+          <t>8855631000552</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>สีทองอะคริลิค สีทองน้ำมันอะคริลิค ผิวเรียบเนียน รุ่น AG-123 HATO ( ขนาด 0.1 ลิตร ) อยู่ได้ทนนานนับ 10 ปีโดยไม่หมองดำ</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="263">
@@ -3844,11 +5154,16 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 912 สีดำด้าน FLAT BLACK (ขนาด 400 cc)  </t>
-        </is>
-      </c>
-      <c r="C263" t="n">
-        <v>32.85310344827585</v>
+          <t>8850106267461</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 266 สีรองพื้นเทา (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>33.39333333333332</v>
       </c>
     </row>
     <row r="264">
@@ -3857,11 +5172,16 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 913 BLUE (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C264" t="n">
-        <v>31.348</v>
+          <t>8850106267393</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 299 ROSE (ขนาด 400 cc)</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>32.788</v>
       </c>
     </row>
     <row r="265">
@@ -3870,11 +5190,16 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 914 สีเขียว (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C265" t="n">
-        <v>32.17666666666667</v>
+          <t>8850106041542</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 900 สีขาว (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>32.24599999999997</v>
       </c>
     </row>
     <row r="266">
@@ -3883,11 +5208,16 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 917 APPLE GREEN (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C266" t="n">
-        <v>33.488</v>
+          <t>8850106041580</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 910 สีดำ (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>32.58085714285712</v>
       </c>
     </row>
     <row r="267">
@@ -3896,11 +5226,16 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 918 สีเหลือง (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C267" t="n">
-        <v>33.62</v>
+          <t>8850106041597</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 911 สีแดง RED (ขนาด 400 cc)</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>33.97166666666666</v>
       </c>
     </row>
     <row r="268">
@@ -3909,11 +5244,16 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 919 CREAM สีครีม (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C268" t="n">
-        <v>33.80666666666666</v>
+          <t>8850106041603</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 912 สีดำด้าน FLAT BLACK (ขนาด 400 cc)  </t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>32.85310344827585</v>
       </c>
     </row>
     <row r="269">
@@ -3922,11 +5262,16 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 920 MEDIUM GREY (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C269" t="n">
-        <v>33.39</v>
+          <t>8850106041610</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 913 BLUE (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>31.348</v>
       </c>
     </row>
     <row r="270">
@@ -3935,11 +5280,16 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 924 SKY BLUE (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C270" t="n">
-        <v>33.88222222222223</v>
+          <t>8850106041627</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 914 สีเขียว (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>32.17666666666667</v>
       </c>
     </row>
     <row r="271">
@@ -3948,11 +5298,16 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 929 สีชมพู (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C271" t="n">
-        <v>33.40529411764705</v>
+          <t>8850106041658</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 917 APPLE GREEN (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>33.488</v>
       </c>
     </row>
     <row r="272">
@@ -3961,11 +5316,16 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 931 CLEAR ใสเงา (ขนาด 400 cc)</t>
-        </is>
-      </c>
-      <c r="C272" t="n">
-        <v>33.45</v>
+          <t>8850106041665</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 918 สีเหลือง (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>33.62</v>
       </c>
     </row>
     <row r="273">
@@ -3974,11 +5334,16 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 940 VIOLET สีม่วง (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C273" t="n">
-        <v>33.442</v>
+          <t>8850106041672</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 919 CREAM สีครีม (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>33.80666666666666</v>
       </c>
     </row>
     <row r="274">
@@ -3987,11 +5352,16 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 941 MEDIEM YELLOW (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C274" t="n">
-        <v>31.79166666666667</v>
+          <t>8850106041689</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 920 MEDIUM GREY (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>33.39</v>
       </c>
     </row>
     <row r="275">
@@ -4000,11 +5370,16 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 942 RIVER BLUE (ขนาด 400 cc)</t>
-        </is>
-      </c>
-      <c r="C275" t="n">
-        <v>34.4</v>
+          <t>8850106041702</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 924 SKY BLUE (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>33.88222222222223</v>
       </c>
     </row>
     <row r="276">
@@ -4013,11 +5388,16 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 950 บรอนซ์เงิน (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C276" t="n">
-        <v>33.48863636363636</v>
+          <t>8850106041733</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 929 สีชมพู (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>33.40529411764705</v>
       </c>
     </row>
     <row r="277">
@@ -4026,11 +5406,16 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE F100 สีขาวด้าน (ขนาด 400 cc)</t>
-        </is>
-      </c>
-      <c r="C277" t="n">
-        <v>32.7591304347826</v>
+          <t>8850106041757</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 931 CLEAR ใสเงา (ขนาด 400 cc)</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>33.45</v>
       </c>
     </row>
     <row r="278">
@@ -4039,11 +5424,16 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE F4 สีส้มสะท้อนแสง (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C278" t="n">
-        <v>58.34</v>
+          <t>8850106041771</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 940 VIOLET สีม่วง (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>33.442</v>
       </c>
     </row>
     <row r="279">
@@ -4052,11 +5442,16 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE F6 สีชมพูสะท้อนแสง (ขนาด 400 cc)</t>
-        </is>
-      </c>
-      <c r="C279" t="n">
-        <v>58.94</v>
+          <t>8850106041788</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 941 MEDIEM YELLOW (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>31.79166666666667</v>
       </c>
     </row>
     <row r="280">
@@ -4065,11 +5460,16 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE K83 สีทอง (ขนาด 400 cc) </t>
-        </is>
-      </c>
-      <c r="C280" t="n">
-        <v>56.99285714285714</v>
+          <t>8850106041795</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 942 RIVER BLUE (ขนาด 400 cc)</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>34.4</v>
       </c>
     </row>
     <row r="281">
@@ -4078,11 +5478,16 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 926 ORANGE สีส้ม (ขนาด 400 cc.)     </t>
-        </is>
-      </c>
-      <c r="C281" t="n">
-        <v>33.39333333333332</v>
+          <t>8850106041801</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 950 บรอนซ์เงิน (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>33.48863636363636</v>
       </c>
     </row>
     <row r="282">
@@ -4091,11 +5496,16 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t xml:space="preserve">สเปรย์ป้องกันและกำจัดปลวก มอด มด แมลงสาบ CHAINDRITE (ขนาด 450 ml.) </t>
-        </is>
-      </c>
-      <c r="C282" t="n">
-        <v>62.5</v>
+          <t>8850106267447</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE F100 สีขาวด้าน (ขนาด 400 cc)</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>32.7591304347826</v>
       </c>
     </row>
     <row r="283">
@@ -4104,11 +5514,16 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>สเปรย์โฟมอุดรอยรั่ว พียูโฟม PU Foam  WELFOAM (ขนาด 500 ml)</t>
-        </is>
-      </c>
-      <c r="C283" t="n">
-        <v>100.6363636363636</v>
+          <t>8850106267546</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE F4 สีส้มสะท้อนแสง (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>58.34</v>
       </c>
     </row>
     <row r="284">
@@ -4117,11 +5532,16 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve">ส้อมถอนหญ้า (PG70) INDY </t>
-        </is>
-      </c>
-      <c r="C284" t="n">
-        <v>67.99210905797099</v>
+          <t>8850106267560</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE F6 สีชมพูสะท้อนแสง (ขนาด 400 cc)</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>58.94</v>
       </c>
     </row>
     <row r="285">
@@ -4130,11 +5550,16 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ส้อมพรวนดิน (PG60) INDY</t>
-        </is>
-      </c>
-      <c r="C285" t="n">
-        <v>67.9921351351351</v>
+          <t>8850106267638</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE K83 สีทอง (ขนาด 400 cc) </t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>56.99285714285714</v>
       </c>
     </row>
     <row r="286">
@@ -4143,11 +5568,16 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>หัวฉีดน้ำ ปืนฉีดน้ำ AT INDY ปรับระดับได้ 3 ระดับ (PN10)</t>
-        </is>
-      </c>
-      <c r="C286" t="n">
-        <v>63.45926666666666</v>
+          <t>8850106041719</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สีสเปรย์อเนกประสงค์ สีอะคริลิค KOBE 926 ORANGE สีส้ม (ขนาด 400 cc.)     </t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>33.39333333333332</v>
       </c>
     </row>
     <row r="287">
@@ -4156,11 +5586,16 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>หัวฉีดน้ำ ปืนฉีดน้ำ AT INDY ปรับระดับได้ 8 ระดับ (PN20)</t>
-        </is>
-      </c>
-      <c r="C287" t="n">
-        <v>67.99213999999999</v>
+          <t>8851495000202</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">สเปรย์ป้องกันและกำจัดปลวก มอด มด แมลงสาบ CHAINDRITE (ขนาด 450 ml.) </t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="288">
@@ -4169,11 +5604,16 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>หัวแร้งไฟฟ้า หัวแร้งบัดกรี Soldering Iron ( 30/70 วัตต์ ) มีปุ่มเร่งความร้อน CYG409</t>
-        </is>
-      </c>
-      <c r="C288" t="n">
-        <v>135.9842666666666</v>
+          <t>1005004000200</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>สเปรย์โฟมอุดรอยรั่ว พียูโฟม PU Foam  WELFOAM (ขนาด 500 ml)</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>100.6363636363636</v>
       </c>
     </row>
     <row r="289">
@@ -4182,11 +5622,16 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>หัวแร้งไฟฟ้า หัวแร้งบัดกรี Soldering Iron ด้ามพลาสติก AT INDY ( 40 วัตต์ ขนาด 5 มม.) C301</t>
-        </is>
-      </c>
-      <c r="C289" t="n">
-        <v>63.45935</v>
+          <t>8851540017094</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ส้อมถอนหญ้า (PG70) INDY </t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>67.99210905797099</v>
       </c>
     </row>
     <row r="290">
@@ -4195,11 +5640,16 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>อะไหล่ลูกกลิ้ง 4" (C30104) INDY</t>
-        </is>
-      </c>
-      <c r="C290" t="n">
-        <v>14.95752857142857</v>
+          <t>8851540017087</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>ส้อมพรวนดิน (PG60) INDY</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>67.9921351351351</v>
       </c>
     </row>
     <row r="291">
@@ -4208,11 +5658,16 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>อะไหล่ลูกกลิ้งขนสักกะหลาด 4 นิ้ว INDY(C30114)</t>
-        </is>
-      </c>
-      <c r="C291" t="n">
-        <v>14.90777777777778</v>
+          <t>8851540016790</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>หัวฉีดน้ำ ปืนฉีดน้ำ AT INDY ปรับระดับได้ 3 ระดับ (PN10)</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>63.45926666666666</v>
       </c>
     </row>
     <row r="292">
@@ -4221,11 +5676,16 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t xml:space="preserve">อะไหล่ลูกกลิ้งทาสี ขนสักกะหลาด ขนาด 9 นิ้ว (C30119) </t>
-        </is>
-      </c>
-      <c r="C292" t="n">
-        <v>54.39366666666666</v>
+          <t>8851540017117</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>หัวฉีดน้ำ ปืนฉีดน้ำ AT INDY ปรับระดับได้ 8 ระดับ (PN20)</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>67.99213999999999</v>
       </c>
     </row>
     <row r="293">
@@ -4234,11 +5694,16 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t xml:space="preserve">อะไหล่ลูกกลิ้งทาสี ขนสักหลาด ขนาด 7 นิ้ว (C30117) </t>
-        </is>
-      </c>
-      <c r="C293" t="n">
-        <v>45.32811246031746</v>
+          <t>8851540016653</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>หัวแร้งไฟฟ้า หัวแร้งบัดกรี Soldering Iron ( 30/70 วัตต์ ) มีปุ่มเร่งความร้อน CYG409</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>135.9842666666666</v>
       </c>
     </row>
     <row r="294">
@@ -4247,11 +5712,16 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>อะไหล่ลูกกลิ้งทาสี ขนเคมี 4 นิ้ว INDY (C41104)</t>
-        </is>
-      </c>
-      <c r="C294" t="n">
-        <v>19.94435</v>
+          <t>8851540004490</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>หัวแร้งไฟฟ้า หัวแร้งบัดกรี Soldering Iron ด้ามพลาสติก AT INDY ( 40 วัตต์ ขนาด 5 มม.) C301</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>63.45935</v>
       </c>
     </row>
     <row r="295">
@@ -4260,11 +5730,16 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>อะไหล่ลูกกลิ้งทาสี ขนเคมีสังเคาะห์ ขนาด 7 นิ้ว (C60207)</t>
-        </is>
-      </c>
-      <c r="C295" t="n">
-        <v>27.1969</v>
+          <t>8851540011665</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>อะไหล่ลูกกลิ้ง 4" (C30104) INDY</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>14.95752857142857</v>
       </c>
     </row>
     <row r="296">
@@ -4273,11 +5748,16 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>อะไหล่ลูกกลิ้งทาสี ขนเคมีสังเคาะห์ ขนาด 9 นิ้ว (C60209)</t>
-        </is>
-      </c>
-      <c r="C296" t="n">
-        <v>31.72965</v>
+          <t>8851540013935</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>อะไหล่ลูกกลิ้งขนสักกะหลาด 4 นิ้ว INDY(C30114)</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>14.90777777777778</v>
       </c>
     </row>
     <row r="297">
@@ -4286,11 +5766,16 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>อะไหล่ลูกกลิ้งทาสี ขนเชือก ขนาด 4 นิ้ว INDY(C30124)</t>
-        </is>
-      </c>
-      <c r="C297" t="n">
-        <v>14.95825</v>
+          <t>8851540014307</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">อะไหล่ลูกกลิ้งทาสี ขนสักกะหลาด ขนาด 9 นิ้ว (C30119) </t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>54.39366666666666</v>
       </c>
     </row>
     <row r="298">
@@ -4299,11 +5784,16 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>อะไหล่ลูกกลิ้งทาสี ขนเชือกสีน้ำเงิน ขนาด 4 นิ้ว INDY(C30124)</t>
-        </is>
-      </c>
-      <c r="C298" t="n">
-        <v>14.9582</v>
+          <t>8851540014291</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">อะไหล่ลูกกลิ้งทาสี ขนสักหลาด ขนาด 7 นิ้ว (C30117) </t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>45.32811246031746</v>
       </c>
     </row>
     <row r="299">
@@ -4312,11 +5802,16 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>อะไหล่ลูกกลิ้งทาสี ชนิดโฟม 4 นิ้ว (F30104) INDY</t>
-        </is>
-      </c>
-      <c r="C299" t="n">
-        <v>16.3181</v>
+          <t>8851540015397</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>อะไหล่ลูกกลิ้งทาสี ขนเคมี 4 นิ้ว INDY (C41104)</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>19.94435</v>
       </c>
     </row>
     <row r="300">
@@ -4325,11 +5820,16 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>อะไหล่ลูกกลิ้งทาสีขนเคมี 2" (C20110) INDY</t>
-        </is>
-      </c>
-      <c r="C300" t="n">
-        <v>6.345905624999999</v>
+          <t>8851540013515</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>อะไหล่ลูกกลิ้งทาสี ขนเคมีสังเคาะห์ ขนาด 7 นิ้ว (C60207)</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>27.1969</v>
       </c>
     </row>
     <row r="301">
@@ -4338,11 +5838,16 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>อะไหล่ลูกกลิ้งทาสีขนเคมี 2" (C20110) INDY (2)</t>
-        </is>
-      </c>
-      <c r="C301" t="n">
-        <v>6.345935158730159</v>
+          <t>8851540013249</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>อะไหล่ลูกกลิ้งทาสี ขนเคมีสังเคาะห์ ขนาด 9 นิ้ว (C60209)</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>31.72965</v>
       </c>
     </row>
     <row r="302">
@@ -4351,11 +5856,16 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>อุปกรณ์จัดแนวกระเบื้อง INDY 100 ชิ้น ขนาด 1  มม.(TS010)</t>
-        </is>
-      </c>
-      <c r="C302" t="n">
-        <v>7.2525</v>
+          <t>8851540014499-1</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>อะไหล่ลูกกลิ้งทาสี ขนเชือก ขนาด 4 นิ้ว INDY(C30124)</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>14.95825</v>
       </c>
     </row>
     <row r="303">
@@ -4364,11 +5874,16 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>อุปกรณ์จัดแนวกระเบื้อง INDY 100 ชิ้น ขนาด 1.5 มม.(TS015)</t>
-        </is>
-      </c>
-      <c r="C303" t="n">
-        <v>7.705733333333334</v>
+          <t>8851540014499</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>อะไหล่ลูกกลิ้งทาสี ขนเชือกสีน้ำเงิน ขนาด 4 นิ้ว INDY(C30124)</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>14.9582</v>
       </c>
     </row>
     <row r="304">
@@ -4377,11 +5892,16 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t xml:space="preserve">อุปกรณ์จัดแนวกระเบื้อง จระเข้ ขนาด 1.5 มม. </t>
-        </is>
-      </c>
-      <c r="C304" t="n">
-        <v>37.158</v>
+          <t>8851540011146</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>อะไหล่ลูกกลิ้งทาสี ชนิดโฟม 4 นิ้ว (F30104) INDY</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>16.3181</v>
       </c>
     </row>
     <row r="305">
@@ -4390,11 +5910,16 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>อุปกรณ์จัดแนวกระเบื้อง จระเข้ ขนาด 2 มม.</t>
-        </is>
-      </c>
-      <c r="C305" t="n">
-        <v>37.38</v>
+          <t>8851540015175</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>อะไหล่ลูกกลิ้งทาสีขนเคมี 2" (C20110) INDY</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>6.345905624999999</v>
       </c>
     </row>
     <row r="306">
@@ -4403,11 +5928,16 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t xml:space="preserve">เกรียงพลาสติกฉาบปูน PVC ดำ INDY ขนาด 250 x 115 มม.(C010) </t>
-        </is>
-      </c>
-      <c r="C306" t="n">
-        <v>17.63616543209875</v>
+          <t>8851540015175-1</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>อะไหล่ลูกกลิ้งทาสีขนเคมี 2" (C20110) INDY (2)</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>6.345935158730159</v>
       </c>
     </row>
     <row r="307">
@@ -4416,11 +5946,16 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>เกรียงพลาสติกอเนกประสงค์ ขนาด 18 ซม. (C141) INDY</t>
-        </is>
-      </c>
-      <c r="C307" t="n">
-        <v>36.26242500000002</v>
+          <t>8851540017230</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>อุปกรณ์จัดแนวกระเบื้อง INDY 100 ชิ้น ขนาด 1  มม.(TS010)</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>7.2525</v>
       </c>
     </row>
     <row r="308">
@@ -4429,11 +5964,16 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>เกรียงสามเหลี่ยมด้ามไม้ 6″ฟันด้านขวา (C0322) INDY</t>
-        </is>
-      </c>
-      <c r="C308" t="n">
-        <v>36.26249583333333</v>
+          <t>8851540017247</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>อุปกรณ์จัดแนวกระเบื้อง INDY 100 ชิ้น ขนาด 1.5 มม.(TS015)</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>7.705733333333334</v>
       </c>
     </row>
     <row r="309">
@@ -4442,11 +5982,16 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>เกรียงสามเหลี่ยมด้ามไม้ 6″ฟันด้านซ้าย (C0323) INDY</t>
-        </is>
-      </c>
-      <c r="C309" t="n">
-        <v>36.2624619047619</v>
+          <t>8852278411291</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">อุปกรณ์จัดแนวกระเบื้อง จระเข้ ขนาด 1.5 มม. </t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>37.158</v>
       </c>
     </row>
     <row r="310">
@@ -4455,11 +6000,16 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>เกรียงสามเหลี่ยมด้ามไม้ ขนาด 6 นิ้ว (C032A) แบบหนา INDY</t>
-        </is>
-      </c>
-      <c r="C310" t="n">
-        <v>36.26245694444436</v>
+          <t>8852278411260</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>อุปกรณ์จัดแนวกระเบื้อง จระเข้ ขนาด 2 มม.</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>37.38</v>
       </c>
     </row>
     <row r="311">
@@ -4468,11 +6018,16 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>เกรียงโป้วสีด้ามยาง 1.5" (C131) INDY</t>
-        </is>
-      </c>
-      <c r="C311" t="n">
-        <v>31.7297</v>
+          <t>8851540015076</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">เกรียงพลาสติกฉาบปูน PVC ดำ INDY ขนาด 250 x 115 มม.(C010) </t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>17.63616543209875</v>
       </c>
     </row>
     <row r="312">
@@ -4481,11 +6036,16 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>เกรียงโป้วสีด้ามยาง 2" (C132) INDY</t>
-        </is>
-      </c>
-      <c r="C312" t="n">
-        <v>37.9623125</v>
+          <t>8851540015434</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>เกรียงพลาสติกอเนกประสงค์ ขนาด 18 ซม. (C141) INDY</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>36.26242500000002</v>
       </c>
     </row>
     <row r="313">
@@ -4494,11 +6054,16 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>เกรียงโป้วสีด้ามยาง 3" (C134) INDY</t>
-        </is>
-      </c>
-      <c r="C313" t="n">
-        <v>45.3281</v>
+          <t>8851540014444</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>เกรียงสามเหลี่ยมด้ามไม้ 6″ฟันด้านขวา (C0322) INDY</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>36.26249583333333</v>
       </c>
     </row>
     <row r="314">
@@ -4507,11 +6072,16 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>เกรียงโป้วสีด้ามยาง 4" (C135) INDY</t>
-        </is>
-      </c>
-      <c r="C314" t="n">
-        <v>49.86083333333334</v>
+          <t>8851540016370</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>เกรียงสามเหลี่ยมด้ามไม้ 6″ฟันด้านซ้าย (C0323) INDY</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>36.2624619047619</v>
       </c>
     </row>
     <row r="315">
@@ -4520,11 +6090,16 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>เกรียงโป้วสีด้ามยาง 6" (C137) INDY</t>
-        </is>
-      </c>
-      <c r="C315" t="n">
-        <v>58.92655999999999</v>
+          <t>8851540006203</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>เกรียงสามเหลี่ยมด้ามไม้ ขนาด 6 นิ้ว (C032A) แบบหนา INDY</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>36.26245694444436</v>
       </c>
     </row>
     <row r="316">
@@ -4533,11 +6108,16 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>เกรียงโป้วสีด้ามยาง ขนาด 2.5 นิ้ว (C133)</t>
-        </is>
-      </c>
-      <c r="C316" t="n">
-        <v>40.7952625</v>
+          <t>8851540001642</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>เกรียงโป้วสีด้ามยาง 1.5" (C131) INDY</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>31.7297</v>
       </c>
     </row>
     <row r="317">
@@ -4546,11 +6126,16 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>เกรียงโป้วสีสแตนเลส ด้ามยาง 2" (S120) INDY</t>
-        </is>
-      </c>
-      <c r="C317" t="n">
-        <v>49.8609</v>
+          <t>8851540001659</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>เกรียงโป้วสีด้ามยาง 2" (C132) INDY</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>37.9623125</v>
       </c>
     </row>
     <row r="318">
@@ -4559,11 +6144,16 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>เกรียงโป้วสีสแตนเลส ด้ามยาง 2.5" (S125) INDY</t>
-        </is>
-      </c>
-      <c r="C318" t="n">
-        <v>55.3002</v>
+          <t>8851540001673</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>เกรียงโป้วสีด้ามยาง 3" (C134) INDY</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>45.3281</v>
       </c>
     </row>
     <row r="319">
@@ -4572,11 +6162,16 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>เกรียงโป้วสีสแตนเลส ด้ามยาง 5" (S150) INDY</t>
-        </is>
-      </c>
-      <c r="C319" t="n">
-        <v>72.24764999999999</v>
+          <t>8851540001680</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>เกรียงโป้วสีด้ามยาง 4" (C135) INDY</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>49.86083333333334</v>
       </c>
     </row>
     <row r="320">
@@ -4585,11 +6180,16 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>เกียงโป้วพลาสติกปาดยาแนว SUPER ( ขนาด 4 นิ้ว ) ( คละสี )</t>
-        </is>
-      </c>
-      <c r="C320" t="n">
-        <v>4.556134339622642</v>
+          <t>8851540011924</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>เกรียงโป้วสีด้ามยาง 6" (C137) INDY</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>58.92655999999999</v>
       </c>
     </row>
     <row r="321">
@@ -4598,11 +6198,16 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>เคเบิ้ลไทร์ สายรัดสายไฟ สายรัดหนวดกุ้ง สีขาว  ขนาด 8 นิ้ว</t>
-        </is>
-      </c>
-      <c r="C321" t="n">
-        <v>48.8</v>
+          <t>8851540001666</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>เกรียงโป้วสีด้ามยาง ขนาด 2.5 นิ้ว (C133)</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>40.7952625</v>
       </c>
     </row>
     <row r="322">
@@ -4611,11 +6216,16 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>เคเบิ้ลไทร์ สายรัดสายไฟ สายรัดหนวดกุ้ง สีขาว ขนาด 4 นิ้ว</t>
-        </is>
-      </c>
-      <c r="C322" t="n">
-        <v>14.82857142857143</v>
+          <t>8851540013539</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>เกรียงโป้วสีสแตนเลส ด้ามยาง 2" (S120) INDY</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>49.8609</v>
       </c>
     </row>
     <row r="323">
@@ -4624,11 +6234,16 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t xml:space="preserve">เคเบิ้ลไทร์ สายรัดสายไฟ สายรัดหนวดกุ้ง สีขาว ขนาด 6 นิ้ว </t>
-        </is>
-      </c>
-      <c r="C323" t="n">
-        <v>38.08</v>
+          <t>8851540013546</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>เกรียงโป้วสีสแตนเลส ด้ามยาง 2.5" (S125) INDY</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>55.3002</v>
       </c>
     </row>
     <row r="324">
@@ -4637,11 +6252,16 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>เคเบิ้ลไทร์ สายรัดสายไฟ สายรัดหนวดกุ้ง สีดำ ขนาด 4 นิ้ว</t>
-        </is>
-      </c>
-      <c r="C324" t="n">
-        <v>14.42625</v>
+          <t>8851540013577</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>เกรียงโป้วสีสแตนเลส ด้ามยาง 5" (S150) INDY</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>72.24764999999999</v>
       </c>
     </row>
     <row r="325">
@@ -4650,11 +6270,16 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>เคเบิ้ลไทร์ สายรัดสายไฟ สายรัดหนวดกุ้ง สีดำ ขนาด 6 นิ้ว</t>
-        </is>
-      </c>
-      <c r="C325" t="n">
-        <v>38.64</v>
+          <t>121865</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>เกียงโป้วพลาสติกปาดยาแนว SUPER ( ขนาด 4 นิ้ว ) ( คละสี )</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>4.556134339622642</v>
       </c>
     </row>
     <row r="326">
@@ -4663,11 +6288,16 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>เคเบิ้ลไทร์ สายรัดสายไฟ สายรัดหนวดกุ้ง สีดำ ขนาด 8 นิ้ว</t>
-        </is>
-      </c>
-      <c r="C326" t="n">
-        <v>49</v>
+          <t>10006150</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>เคเบิ้ลไทร์ สายรัดสายไฟ สายรัดหนวดกุ้ง สีขาว  ขนาด 8 นิ้ว</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>48.8</v>
       </c>
     </row>
     <row r="327">
@@ -4676,11 +6306,16 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>เทปพันเกลียว (XT019) หนาพิเศษ 0.075มม. 19 มม. INDY</t>
-        </is>
-      </c>
-      <c r="C327" t="n">
-        <v>8.1591</v>
+          <t>10006148</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>เคเบิ้ลไทร์ สายรัดสายไฟ สายรัดหนวดกุ้ง สีขาว ขนาด 4 นิ้ว</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>14.82857142857143</v>
       </c>
     </row>
     <row r="328">
@@ -4689,11 +6324,16 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t xml:space="preserve">เทปพันเกลียว หนาพิเศษ 0.075มม. แบบแขวน (XT028P) AT INDY </t>
-        </is>
-      </c>
-      <c r="C328" t="n">
-        <v>9.0656</v>
+          <t>10006149</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">เคเบิ้ลไทร์ สายรัดสายไฟ สายรัดหนวดกุ้ง สีขาว ขนาด 6 นิ้ว </t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>38.08</v>
       </c>
     </row>
     <row r="329">
@@ -4702,11 +6342,16 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>เทปวัดที่ รุ่นเปลือย 30 เมตร (34645C) INDY</t>
-        </is>
-      </c>
-      <c r="C329" t="n">
-        <v>199.4436459999999</v>
+          <t>10006155</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>เคเบิ้ลไทร์ สายรัดสายไฟ สายรัดหนวดกุ้ง สีดำ ขนาด 4 นิ้ว</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>14.42625</v>
       </c>
     </row>
     <row r="330">
@@ -4715,11 +6360,16 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>เทปวัดที่ รุ่นเปลือย 50 เมตร (34646C) INDY</t>
-        </is>
-      </c>
-      <c r="C330" t="n">
-        <v>249.304424887387</v>
+          <t>10006153</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>เคเบิ้ลไทร์ สายรัดสายไฟ สายรัดหนวดกุ้ง สีดำ ขนาด 6 นิ้ว</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>38.64</v>
       </c>
     </row>
     <row r="331">
@@ -4728,11 +6378,16 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>เทปวัดที่ สายวัดระยะ รุ่นกลม INDY ขนาด 30 เมตร.(34262C)</t>
-        </is>
-      </c>
-      <c r="C331" t="n">
-        <v>199.44365</v>
+          <t>10006154</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>เคเบิ้ลไทร์ สายรัดสายไฟ สายรัดหนวดกุ้ง สีดำ ขนาด 8 นิ้ว</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="332">
@@ -4741,11 +6396,16 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>เทปวัดที่ สายวัดระยะ รุ่นกลม INDY ขนาด 50 เมตร (34263C)</t>
-        </is>
-      </c>
-      <c r="C332" t="n">
-        <v>249.3045666666667</v>
+          <t>8851540013782</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>เทปพันเกลียว (XT019) หนาพิเศษ 0.075มม. 19 มม. INDY</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>8.1591</v>
       </c>
     </row>
     <row r="333">
@@ -4754,11 +6414,16 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t xml:space="preserve">เทปวัดที่ เทปวัดระยะ รุ่นกลม *แถบวัดทอด้วยไฟเบอร์ใยแก้ว ขนาด 50 เมตร (34276C)  AT INDY </t>
-        </is>
-      </c>
-      <c r="C333" t="n">
-        <v>407.9528666666667</v>
+          <t>8851540002236</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">เทปพันเกลียว หนาพิเศษ 0.075มม. แบบแขวน (XT028P) AT INDY </t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>9.0656</v>
       </c>
     </row>
     <row r="334">
@@ -4767,11 +6432,16 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>เทปวัดที่ เทปวัดระยะ รุ่นกลม *แถบวัดทอด้วยไฟเบอร์ใยแก้ว*20 เมตร (34274C) AT INDY</t>
-        </is>
-      </c>
-      <c r="C334" t="n">
-        <v>181.3125333333333</v>
+          <t>8851540005176</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>เทปวัดที่ รุ่นเปลือย 30 เมตร (34645C) INDY</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>199.4436459999999</v>
       </c>
     </row>
     <row r="335">
@@ -4780,11 +6450,16 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>เทปวัดที่ เทปวัดระยะ รุ่นกลม*แถบวัดทอด้วยไฟเบอร์ใยแก้ว*30 เมตร (34275C)  AT INDY</t>
-        </is>
-      </c>
-      <c r="C335" t="n">
-        <v>226.6406666666667</v>
+          <t>8851540005183</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>เทปวัดที่ รุ่นเปลือย 50 เมตร (34646C) INDY</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>249.304424887387</v>
       </c>
     </row>
     <row r="336">
@@ -4793,11 +6468,16 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>เทปวัดที่ เทปวัดระยะ สายวัดระยะ เทปวัดพกพา รุ่นกลม AT INDY กันกระแทก 20 ม. (34261C)</t>
-        </is>
-      </c>
-      <c r="C336" t="n">
-        <v>145.0499</v>
+          <t>8851540005145</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>เทปวัดที่ สายวัดระยะ รุ่นกลม INDY ขนาด 30 เมตร.(34262C)</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>199.44365</v>
       </c>
     </row>
     <row r="337">
@@ -4806,11 +6486,16 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>เทปวัดที่กลมไฟเบอร์กลาสยาว 20m</t>
-        </is>
-      </c>
-      <c r="C337" t="n">
-        <v>101.7862</v>
+          <t>8851540005152</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>เทปวัดที่ สายวัดระยะ รุ่นกลม INDY ขนาด 50 เมตร (34263C)</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>249.3045666666667</v>
       </c>
     </row>
     <row r="338">
@@ -4819,11 +6504,16 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>เมทิล แอลกอฮอร์ 100% 400cc.</t>
-        </is>
-      </c>
-      <c r="C338" t="n">
-        <v>17.05285714285715</v>
+          <t>8851540017131</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">เทปวัดที่ เทปวัดระยะ รุ่นกลม *แถบวัดทอด้วยไฟเบอร์ใยแก้ว ขนาด 50 เมตร (34276C)  AT INDY </t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>407.9528666666667</v>
       </c>
     </row>
     <row r="339">
@@ -4832,11 +6522,16 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>เลื่อย เลื่อยไม้ เลื่อยตัดไม้ Saw เลื่อยลันดา รุ่น Jet Cut  AT INDY  มี 3 ขนาด ( 22 , 24 , 26 นิ้ว ) ทนทาน ไม่เป็นสนิม(24" (GX24</t>
-        </is>
-      </c>
-      <c r="C339" t="n">
-        <v>179.4993</v>
+          <t>8851540017100</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>เทปวัดที่ เทปวัดระยะ รุ่นกลม *แถบวัดทอด้วยไฟเบอร์ใยแก้ว*20 เมตร (34274C) AT INDY</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>181.3125333333333</v>
       </c>
     </row>
     <row r="340">
@@ -4845,11 +6540,16 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>เลื่อย เลื่อยไม้ เลื่อยตัดไม้ Saw เลื่อยลันดา รุ่น Jet Cut  AT INDY  มี 3 ขนาด ( 22 , 24 , 26 นิ้ว ) ทนทาน ไม่เป็นสนิม(26" (GX26</t>
-        </is>
-      </c>
-      <c r="C340" t="n">
-        <v>204.8813</v>
+          <t>8851540017124</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>เทปวัดที่ เทปวัดระยะ รุ่นกลม*แถบวัดทอด้วยไฟเบอร์ใยแก้ว*30 เมตร (34275C)  AT INDY</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>226.6406666666667</v>
       </c>
     </row>
     <row r="341">
@@ -4858,11 +6558,16 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>เลื่อยคันธนู 21" รุ่น P53 INDY</t>
-        </is>
-      </c>
-      <c r="C341" t="n">
-        <v>90.65545</v>
+          <t>8851540005367</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>เทปวัดที่ เทปวัดระยะ สายวัดระยะ เทปวัดพกพา รุ่นกลม AT INDY กันกระแทก 20 ม. (34261C)</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>145.0499</v>
       </c>
     </row>
     <row r="342">
@@ -4871,11 +6576,16 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>เลื่อยตัดไม้ เลื่อยคันธนู INDY ขนาด 24 นิ้ว (P524)</t>
-        </is>
-      </c>
-      <c r="C342" t="n">
-        <v>99.7218</v>
+          <t>070803020</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>เทปวัดที่กลมไฟเบอร์กลาสยาว 20m</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>101.7862</v>
       </c>
     </row>
     <row r="343">
@@ -4884,11 +6594,16 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t xml:space="preserve">เลื่อยพับ เลื่อยตัดกิ่ง ขนาด 300 มม. </t>
-        </is>
-      </c>
-      <c r="C343" t="n">
-        <v>72.44489999999999</v>
+          <t>090610</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>เมทิล แอลกอฮอร์ 100% 400cc.</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>17.05285714285715</v>
       </c>
     </row>
     <row r="344">
@@ -4897,11 +6612,16 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>เลื่อยมือพับ เลื่อยไม้ เลื่อยตัดไม้ INDY ขนาด 7 นิ้ว(P41)</t>
-        </is>
-      </c>
-      <c r="C344" t="n">
-        <v>140.5171333333334</v>
+          <t>8851540003400</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>เลื่อย เลื่อยไม้ เลื่อยตัดไม้ Saw เลื่อยลันดา รุ่น Jet Cut  AT INDY  มี 3 ขนาด ( 22 , 24 , 26 นิ้ว ) ทนทาน ไม่เป็นสนิม(24" (GX24</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>179.4993</v>
       </c>
     </row>
     <row r="345">
@@ -4910,11 +6630,16 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>เลื่อยหางหนู 11" (P40) INDY</t>
-        </is>
-      </c>
-      <c r="C345" t="n">
-        <v>63.4592409523811</v>
+          <t>8851540003417</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>เลื่อย เลื่อยไม้ เลื่อยตัดไม้ Saw เลื่อยลันดา รุ่น Jet Cut  AT INDY  มี 3 ขนาด ( 22 , 24 , 26 นิ้ว ) ทนทาน ไม่เป็นสนิม(26" (GX26</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>204.8813</v>
       </c>
     </row>
     <row r="346">
@@ -4923,11 +6648,16 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>เหล็กขูดร่องยาแนว  (ขนาด 20 ซม.)ใบมีดเหล็กพิเศษ เคลือบกากเพชร C142 AT INDY</t>
-        </is>
-      </c>
-      <c r="C346" t="n">
-        <v>63.96703700000003</v>
+          <t>8851540016059</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>เลื่อยคันธนู 21" รุ่น P53 INDY</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>90.65545</v>
       </c>
     </row>
     <row r="347">
@@ -4936,11 +6666,16 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>เหล็กสกัดด้ามหุ้มยาง สกัดปูน เหล็กสกัด AT INDY ขนาด 10"(ปากแหลม (H53))</t>
-        </is>
-      </c>
-      <c r="C347" t="n">
-        <v>95.1889</v>
+          <t>8851540016240</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>เลื่อยตัดไม้ เลื่อยคันธนู INDY ขนาด 24 นิ้ว (P524)</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>99.7218</v>
       </c>
     </row>
     <row r="348">
@@ -4949,11 +6684,16 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>เหล็กสกัดด้ามหุ้มยางปากแบน (H54) AT INDY</t>
-        </is>
-      </c>
-      <c r="C348" t="n">
-        <v>95.1889</v>
+          <t>020902300</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">เลื่อยพับ เลื่อยตัดกิ่ง ขนาด 300 มม. </t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>72.44489999999999</v>
       </c>
     </row>
     <row r="349">
@@ -4962,11 +6702,16 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>เหล็กสตัดเกลียว สำหรับพุกเคมี ขนาด M10mm.</t>
-        </is>
-      </c>
-      <c r="C349" t="n">
-        <v>29.96</v>
+          <t>8851540010613</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>เลื่อยมือพับ เลื่อยไม้ เลื่อยตัดไม้ INDY ขนาด 7 นิ้ว(P41)</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>140.5171333333334</v>
       </c>
     </row>
     <row r="350">
@@ -4975,11 +6720,16 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>เหล็กสตัดเกลียว สำหรับพุกเคมี ขนาด M16 mm.</t>
-        </is>
-      </c>
-      <c r="C350" t="n">
-        <v>66</v>
+          <t>8851540010590</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>เลื่อยหางหนู 11" (P40) INDY</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>63.4592409523811</v>
       </c>
     </row>
     <row r="351">
@@ -4988,11 +6738,16 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>เหล็กสตัดเกลียว สำหรับพุกเคมี ขนาด M8 mm.</t>
-        </is>
-      </c>
-      <c r="C351" t="n">
-        <v>23.54</v>
+          <t>8851540015441</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>เหล็กขูดร่องยาแนว  (ขนาด 20 ซม.)ใบมีดเหล็กพิเศษ เคลือบกากเพชร C142 AT INDY</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>63.96703700000003</v>
       </c>
     </row>
     <row r="352">
@@ -5001,11 +6756,16 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>เหล็กส่ง 1/32" ยาว 5 นิ้ว รุ่น 58912C INDY</t>
-        </is>
-      </c>
-      <c r="C352" t="n">
-        <v>31.7297</v>
+          <t>8851540010194</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>เหล็กสกัดด้ามหุ้มยาง สกัดปูน เหล็กสกัด AT INDY ขนาด 10"(ปากแหลม (H53))</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>95.1889</v>
       </c>
     </row>
     <row r="353">
@@ -5014,11 +6774,16 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>แคลมป์จับชิ้นงานตัว Fขนาด 80x300</t>
-        </is>
-      </c>
-      <c r="C353" t="n">
-        <v>84.76819999999999</v>
+          <t>8851540010187</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>เหล็กสกัดด้ามหุ้มยางปากแบน (H54) AT INDY</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>95.1889</v>
       </c>
     </row>
     <row r="354">
@@ -5027,11 +6792,16 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 1 นิ้ว AT INDY (200PT-1)</t>
-        </is>
-      </c>
-      <c r="C354" t="n">
-        <v>9.065608333333333</v>
+          <t>1001006000500</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>เหล็กสตัดเกลียว สำหรับพุกเคมี ขนาด M10mm.</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>29.96</v>
       </c>
     </row>
     <row r="355">
@@ -5040,11 +6810,16 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t xml:space="preserve">แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 1 นิ้ว INDY (300PT-1) </t>
-        </is>
-      </c>
-      <c r="C355" t="n">
-        <v>7.984302941176467</v>
+          <t>1001006001100</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>เหล็กสตัดเกลียว สำหรับพุกเคมี ขนาด M16 mm.</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="356">
@@ -5053,11 +6828,16 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 1.5 นิ้ว AT INDY (200PT-1.5)</t>
-        </is>
-      </c>
-      <c r="C356" t="n">
-        <v>12.691885</v>
+          <t>1001006000200</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>เหล็กสตัดเกลียว สำหรับพุกเคมี ขนาด M8 mm.</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>23.54</v>
       </c>
     </row>
     <row r="357">
@@ -5066,11 +6846,16 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 1.5 นิ้ว INDY (300PT-1.5)</t>
-        </is>
-      </c>
-      <c r="C357" t="n">
-        <v>10.7493325</v>
+          <t>8851540010422</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>เหล็กส่ง 1/32" ยาว 5 นิ้ว รุ่น 58912C INDY</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>31.7297</v>
       </c>
     </row>
     <row r="358">
@@ -5079,11 +6864,16 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t xml:space="preserve">แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 2 นิ้ว AT INDY (200PT-2) </t>
-        </is>
-      </c>
-      <c r="C358" t="n">
-        <v>16.31810833333333</v>
+          <t>052203030</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>แคลมป์จับชิ้นงานตัว Fขนาด 80x300</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>84.76819999999999</v>
       </c>
     </row>
     <row r="359">
@@ -5092,11 +6882,16 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t xml:space="preserve">แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 2 นิ้ว INDY (300PT-2) </t>
-        </is>
-      </c>
-      <c r="C359" t="n">
-        <v>14.55327222222223</v>
+          <t>8851540015649</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 1 นิ้ว AT INDY (200PT-1)</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>9.065608333333333</v>
       </c>
     </row>
     <row r="360">
@@ -5105,11 +6900,16 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 2.5 นิ้ว AT INDY (200PT-2.5)</t>
-        </is>
-      </c>
-      <c r="C360" t="n">
-        <v>23.570604</v>
+          <t>8851540016271</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 1 นิ้ว INDY (300PT-1) </t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>7.984302941176467</v>
       </c>
     </row>
     <row r="361">
@@ -5118,11 +6918,16 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t xml:space="preserve">แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 2.5 นิ้ว INDY (300PT-2.5) </t>
-        </is>
-      </c>
-      <c r="C361" t="n">
-        <v>21.67947826086956</v>
+          <t>8851540015656</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 1.5 นิ้ว AT INDY (200PT-1.5)</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>12.691885</v>
       </c>
     </row>
     <row r="362">
@@ -5131,11 +6936,16 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 3 นิ้ว AT INDY(200PT-3)</t>
-        </is>
-      </c>
-      <c r="C362" t="n">
-        <v>28.10340799999999</v>
+          <t>8851540016288</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 1.5 นิ้ว INDY (300PT-1.5)</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>10.7493325</v>
       </c>
     </row>
     <row r="363">
@@ -5144,11 +6954,16 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 3 นิ้ว INDY (300PT-3)</t>
-        </is>
-      </c>
-      <c r="C363" t="n">
-        <v>27.35506140350877</v>
+          <t>8851540015663</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 2 นิ้ว AT INDY (200PT-2) </t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>16.31810833333333</v>
       </c>
     </row>
     <row r="364">
@@ -5157,11 +6972,16 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 4 นิ้ว AT INDY (200PT-4)</t>
-        </is>
-      </c>
-      <c r="C364" t="n">
-        <v>29.916535</v>
+          <t>8851540016295</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 2 นิ้ว INDY (300PT-2) </t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>14.55327222222223</v>
       </c>
     </row>
     <row r="365">
@@ -5170,11 +6990,16 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t xml:space="preserve">แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 4 นิ้ว INDY (300PT-4) </t>
-        </is>
-      </c>
-      <c r="C365" t="n">
-        <v>25.7532</v>
+          <t>8851540015670</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 2.5 นิ้ว AT INDY (200PT-2.5)</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>23.570604</v>
       </c>
     </row>
     <row r="366">
@@ -5183,11 +7008,16 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>แปรงทาสี ขนสัตว์ ด้ามยาว รุ่น 900 ขนาด 1.5 นิ้ว AT INDY(C906)</t>
-        </is>
-      </c>
-      <c r="C366" t="n">
-        <v>35.3559</v>
+          <t>8851540016301</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 2.5 นิ้ว INDY (300PT-2.5) </t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>21.67947826086956</v>
       </c>
     </row>
     <row r="367">
@@ -5196,11 +7026,16 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>แปรงทาสี ขนสัตว์ ด้ามยาว รุ่น 900 ขนาด 2 นิ้ว AT INDY (C907)</t>
-        </is>
-      </c>
-      <c r="C367" t="n">
-        <v>47.1412</v>
+          <t>8851540015687</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 3 นิ้ว AT INDY(200PT-3)</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>28.10340799999999</v>
       </c>
     </row>
     <row r="368">
@@ -5209,11 +7044,16 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>แปรงทาสี ขนสัตว์ ด้ามยาว รุ่น 900 ขนาด 2.5 นิ้ว AT INDY (C908)</t>
-        </is>
-      </c>
-      <c r="C368" t="n">
-        <v>65.272475</v>
+          <t>8851540016318</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 3 นิ้ว INDY (300PT-3)</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>27.35506140350877</v>
       </c>
     </row>
     <row r="369">
@@ -5222,11 +7062,16 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>แปรงทาสี ด้ามไม้ รุ่นขนยาวพิเศษ AT INDY ขนาด 1 นิ้ว(C910)</t>
-        </is>
-      </c>
-      <c r="C369" t="n">
-        <v>19.944375</v>
+          <t>8851540015694</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 4 นิ้ว AT INDY (200PT-4)</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>29.916535</v>
       </c>
     </row>
     <row r="370">
@@ -5235,11 +7080,16 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>แปรงทาสี ด้ามไม้ รุ่นขนยาวพิเศษ AT INDY ขนาด 1.5 นิ้ว (C915)</t>
-        </is>
-      </c>
-      <c r="C370" t="n">
-        <v>29.91655833333333</v>
+          <t>8851540016325</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">แปรงทาสี ขนสัตว์ ด้ามพลาสติก ขนาด 4 นิ้ว INDY (300PT-4) </t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>25.7532</v>
       </c>
     </row>
     <row r="371">
@@ -5248,11 +7098,16 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>แปรงทาสี ด้ามไม้ รุ่นขนยาวพิเศษ AT INDY ขนาด 2 นิ้ว(C920)</t>
-        </is>
-      </c>
-      <c r="C371" t="n">
-        <v>40.7953</v>
+          <t>8851540010255</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ขนสัตว์ ด้ามยาว รุ่น 900 ขนาด 1.5 นิ้ว AT INDY(C906)</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>35.3559</v>
       </c>
     </row>
     <row r="372">
@@ -5261,11 +7116,16 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>แปรงทาสี ด้ามไม้ รุ่นขนยาวพิเศษ AT INDY ขนาด 2.5 นิ้ว(C925)</t>
-        </is>
-      </c>
-      <c r="C372" t="n">
-        <v>49.86092083333335</v>
+          <t>8851540010262</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ขนสัตว์ ด้ามยาว รุ่น 900 ขนาด 2 นิ้ว AT INDY (C907)</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>47.1412</v>
       </c>
     </row>
     <row r="373">
@@ -5274,11 +7134,16 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>แปรงทาสี ด้ามไม้ รุ่นขนยาวพิเศษ AT INDY ขนาด 3 นิ้ว(C930)</t>
-        </is>
-      </c>
-      <c r="C373" t="n">
-        <v>69.8053</v>
+          <t>8851540010279</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ขนสัตว์ ด้ามยาว รุ่น 900 ขนาด 2.5 นิ้ว AT INDY (C908)</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>65.272475</v>
       </c>
     </row>
     <row r="374">
@@ -5287,11 +7152,16 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>แปรงทาสี ด้ามไม้ รุ่นขนหนา ยาวปานกลาง ขนาด 2.5 นิ้ว INDY (C306)</t>
-        </is>
-      </c>
-      <c r="C374" t="n">
-        <v>39.8887</v>
+          <t>8851540009631</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ด้ามไม้ รุ่นขนยาวพิเศษ AT INDY ขนาด 1 นิ้ว(C910)</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>19.944375</v>
       </c>
     </row>
     <row r="375">
@@ -5300,11 +7170,16 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>แปรงทาสี ด้ามไม้ รุ่นขนหนา ยาวปานกลาง ขนาด 3 นิ้ว INDY (C307)</t>
-        </is>
-      </c>
-      <c r="C375" t="n">
-        <v>54.3937</v>
+          <t>8851540009648</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ด้ามไม้ รุ่นขนยาวพิเศษ AT INDY ขนาด 1.5 นิ้ว (C915)</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>29.91655833333333</v>
       </c>
     </row>
     <row r="376">
@@ -5313,11 +7188,16 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>แปรงทาสี ด้ามไม้ รุ่นขนหนานุ่ม ขนาด 1 นิ้ว INDY (C310)</t>
-        </is>
-      </c>
-      <c r="C376" t="n">
-        <v>15.41155</v>
+          <t>8851540009655</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ด้ามไม้ รุ่นขนยาวพิเศษ AT INDY ขนาด 2 นิ้ว(C920)</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>40.7953</v>
       </c>
     </row>
     <row r="377">
@@ -5326,11 +7206,16 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>แปรงทาสี ด้ามไม้ รุ่นขนหนานุ่ม ขนาด 1.5 นิ้ว INDY (C315)</t>
-        </is>
-      </c>
-      <c r="C377" t="n">
-        <v>25.38373333333334</v>
+          <t>8851540009662</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ด้ามไม้ รุ่นขนยาวพิเศษ AT INDY ขนาด 2.5 นิ้ว(C925)</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>49.86092083333335</v>
       </c>
     </row>
     <row r="378">
@@ -5339,11 +7224,16 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>แปรงทาสี ด้ามไม้ รุ่นขนหนานุ่ม ขนาด 2 นิ้ว INDY (C320)</t>
-        </is>
-      </c>
-      <c r="C378" t="n">
-        <v>29.9165</v>
+          <t>8851540009679</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ด้ามไม้ รุ่นขนยาวพิเศษ AT INDY ขนาด 3 นิ้ว(C930)</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>69.8053</v>
       </c>
     </row>
     <row r="379">
@@ -5352,11 +7242,16 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>แปรงทาสี ด้ามไม้ รุ่นขนหนานุ่ม ขนาด 3 นิ้ว INDY (C330)</t>
-        </is>
-      </c>
-      <c r="C379" t="n">
-        <v>55.3003</v>
+          <t>8851540004360</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ด้ามไม้ รุ่นขนหนา ยาวปานกลาง ขนาด 2.5 นิ้ว INDY (C306)</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>39.8887</v>
       </c>
     </row>
     <row r="380">
@@ -5365,11 +7260,16 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>แปรงทาสี ทาแชล็ค รุ่นมาตรฐาน ด้ามไม้ ขนาด 1.5 นิ้ว INDY (G501)</t>
-        </is>
-      </c>
-      <c r="C380" t="n">
-        <v>22.664</v>
+          <t>8851540004377</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ด้ามไม้ รุ่นขนหนา ยาวปานกลาง ขนาด 3 นิ้ว INDY (C307)</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>54.3937</v>
       </c>
     </row>
     <row r="381">
@@ -5378,11 +7278,16 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>แปรงทาสีขนเคมี 5 ตัว/ชุด มี ขนาด ( 1 , 1.5 , 2 , 2.5 , 3 นิ้ว) INDY (C600)</t>
-        </is>
-      </c>
-      <c r="C381" t="n">
-        <v>105.1612</v>
+          <t>8851540011931</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ด้ามไม้ รุ่นขนหนานุ่ม ขนาด 1 นิ้ว INDY (C310)</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>15.41155</v>
       </c>
     </row>
     <row r="382">
@@ -5391,11 +7296,16 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>แปรงทาสีขนเคมี ขนยาวพิเศษ ขนาด 1 นิ้ว INDY (C5410)</t>
-        </is>
-      </c>
-      <c r="C382" t="n">
-        <v>13.5984</v>
+          <t>8851540011948</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ด้ามไม้ รุ่นขนหนานุ่ม ขนาด 1.5 นิ้ว INDY (C315)</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>25.38373333333334</v>
       </c>
     </row>
     <row r="383">
@@ -5404,11 +7314,16 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>แปรงทาสีขนเคมี ขนยาวพิเศษ ขนาด 1.5 นิ้ว INDY (C5415)</t>
-        </is>
-      </c>
-      <c r="C383" t="n">
-        <v>17.2247</v>
+          <t>8851540011955</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ด้ามไม้ รุ่นขนหนานุ่ม ขนาด 2 นิ้ว INDY (C320)</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>29.9165</v>
       </c>
     </row>
     <row r="384">
@@ -5417,11 +7332,16 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>แปรงทาสีขนเคมี ขนยาวพิเศษ ขนาด 2 นิ้ว INDY (C5420)</t>
-        </is>
-      </c>
-      <c r="C384" t="n">
-        <v>23.5706</v>
+          <t>8851540011979</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ด้ามไม้ รุ่นขนหนานุ่ม ขนาด 3 นิ้ว INDY (C330)</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>55.3003</v>
       </c>
     </row>
     <row r="385">
@@ -5430,11 +7350,16 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>แปรงทาสีขนเคมี ขนยาวพิเศษ ขนาด 3 นิ้ว INDY (C5430)</t>
-        </is>
-      </c>
-      <c r="C385" t="n">
-        <v>34.4494</v>
+          <t>8851540006265</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>แปรงทาสี ทาแชล็ค รุ่นมาตรฐาน ด้ามไม้ ขนาด 1.5 นิ้ว INDY (G501)</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>22.664</v>
       </c>
     </row>
     <row r="386">
@@ -5443,11 +7368,16 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>แปรงทาสีขนเคมี ขนาด  2.5 นิ้ว AT INDY (C5325)</t>
-        </is>
-      </c>
-      <c r="C386" t="n">
-        <v>25.38371875</v>
+          <t>0701651229092</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>แปรงทาสีขนเคมี 5 ตัว/ชุด มี ขนาด ( 1 , 1.5 , 2 , 2.5 , 3 นิ้ว) INDY (C600)</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>105.1612</v>
       </c>
     </row>
     <row r="387">
@@ -5456,11 +7386,16 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>แปรงทาสีขนเคมี ขนาด 1 นิ้ว AT INDY (C5310)</t>
-        </is>
-      </c>
-      <c r="C387" t="n">
-        <v>9.972189492753619</v>
+          <t>8851540015212</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>แปรงทาสีขนเคมี ขนยาวพิเศษ ขนาด 1 นิ้ว INDY (C5410)</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>13.5984</v>
       </c>
     </row>
     <row r="388">
@@ -5469,11 +7404,16 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>แปรงทาสีขนเคมี ขนาด 1.5 นิ้ว AT INDY (C5315)</t>
-        </is>
-      </c>
-      <c r="C388" t="n">
-        <v>15.4115858974359</v>
+          <t>8851540015229</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>แปรงทาสีขนเคมี ขนยาวพิเศษ ขนาด 1.5 นิ้ว INDY (C5415)</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>17.2247</v>
       </c>
     </row>
     <row r="389">
@@ -5482,11 +7422,16 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t xml:space="preserve">แปรงทาสีขนเคมี ขนาด 2 นิ้ว AT INDY (C5320) </t>
-        </is>
-      </c>
-      <c r="C389" t="n">
-        <v>19.94438958333333</v>
+          <t>8851540015236</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>แปรงทาสีขนเคมี ขนยาวพิเศษ ขนาด 2 นิ้ว INDY (C5420)</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>23.5706</v>
       </c>
     </row>
     <row r="390">
@@ -5495,11 +7440,16 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>แปรงทาสีขนเคมี ขนาด 3 นิ้ว AT INDY (C5330)</t>
-        </is>
-      </c>
-      <c r="C390" t="n">
-        <v>29.91648428571429</v>
+          <t>8851540015250</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>แปรงทาสีขนเคมี ขนยาวพิเศษ ขนาด 3 นิ้ว INDY (C5430)</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>34.4494</v>
       </c>
     </row>
     <row r="391">
@@ -5508,11 +7458,16 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t xml:space="preserve">แปรงทาสีขนเคมีสังเคราะห์ AT INDY ขนาด 1 นิ้ว (C710) </t>
-        </is>
-      </c>
-      <c r="C391" t="n">
-        <v>19.9444</v>
+          <t>8851540015298</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>แปรงทาสีขนเคมี ขนาด  2.5 นิ้ว AT INDY (C5325)</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>25.38371875</v>
       </c>
     </row>
     <row r="392">
@@ -5521,11 +7476,16 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t xml:space="preserve">แปรงทาสีขนเคมีสังเคราะห์ AT INDY ขนาด 1.5 นิ้ว (C715) </t>
-        </is>
-      </c>
-      <c r="C392" t="n">
-        <v>29.9165</v>
+          <t>8851540015267</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>แปรงทาสีขนเคมี ขนาด 1 นิ้ว AT INDY (C5310)</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>9.972189492753619</v>
       </c>
     </row>
     <row r="393">
@@ -5534,11 +7494,16 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>แปรงทาสีขนเคมีสังเคราะห์ AT INDY ขนาด 2 นิ้ว (C720)</t>
-        </is>
-      </c>
-      <c r="C393" t="n">
-        <v>35.35591666666667</v>
+          <t>8851540015274</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>แปรงทาสีขนเคมี ขนาด 1.5 นิ้ว AT INDY (C5315)</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>15.4115858974359</v>
       </c>
     </row>
     <row r="394">
@@ -5547,11 +7512,16 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t xml:space="preserve">แปรงทาสีขนเคมีสังเคราะห์ AT INDY ขนาด 2.5 นิ้ว (C725) </t>
-        </is>
-      </c>
-      <c r="C394" t="n">
-        <v>39.88875</v>
+          <t>8851540015281</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">แปรงทาสีขนเคมี ขนาด 2 นิ้ว AT INDY (C5320) </t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>19.94438958333333</v>
       </c>
     </row>
     <row r="395">
@@ -5560,11 +7530,16 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>แปรงทาสีขนเคมีสังเคราะห์ AT INDY ขนาด 3 นิ้ว(C730)</t>
-        </is>
-      </c>
-      <c r="C395" t="n">
-        <v>49.86096666666666</v>
+          <t>8851540015304</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>แปรงทาสีขนเคมี ขนาด 3 นิ้ว AT INDY (C5330)</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>29.91648428571429</v>
       </c>
     </row>
     <row r="396">
@@ -5573,11 +7548,16 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>แปรงทาสีขนเคมีสังเคราะห์ AT INDY ขนาด 4 นิ้ว (C740)</t>
-        </is>
-      </c>
-      <c r="C396" t="n">
-        <v>69.80540000000001</v>
+          <t>8851540016868</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">แปรงทาสีขนเคมีสังเคราะห์ AT INDY ขนาด 1 นิ้ว (C710) </t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>19.9444</v>
       </c>
     </row>
     <row r="397">
@@ -5586,11 +7566,16 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>แปรงทาสีขนเคมีสังเคราะห์ ด้ามยาง TPR ขนาด 2.5 นิ้ว AT INDY (C825)</t>
-        </is>
-      </c>
-      <c r="C397" t="n">
-        <v>58.92653333333333</v>
+          <t>8851540016875</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">แปรงทาสีขนเคมีสังเคราะห์ AT INDY ขนาด 1.5 นิ้ว (C715) </t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>29.9165</v>
       </c>
     </row>
     <row r="398">
@@ -5599,11 +7584,16 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>แปรงทาสแชล็ค ด้ามไม้ รุ่น Series 200 INDY ขนาด 3"(C213)</t>
-        </is>
-      </c>
-      <c r="C398" t="n">
-        <v>45.3268</v>
+          <t>8851540016882</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>แปรงทาสีขนเคมีสังเคราะห์ AT INDY ขนาด 2 นิ้ว (C720)</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>35.35591666666667</v>
       </c>
     </row>
     <row r="399">
@@ -5612,11 +7602,16 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t xml:space="preserve">แปรงทาแชล็ค ด้ามไม้ 1" (C211) รุ่น Series 200 INDY </t>
-        </is>
-      </c>
-      <c r="C399" t="n">
-        <v>22.6639375</v>
+          <t>8851540016899</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">แปรงทาสีขนเคมีสังเคราะห์ AT INDY ขนาด 2.5 นิ้ว (C725) </t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>39.88875</v>
       </c>
     </row>
     <row r="400">
@@ -5625,11 +7620,16 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>แปรงทาแชล็ค ด้ามไม้ 5" (C215) รุ่น Series 200 INDY</t>
-        </is>
-      </c>
-      <c r="C400" t="n">
-        <v>63.45932777777777</v>
+          <t>8851540016905</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>แปรงทาสีขนเคมีสังเคราะห์ AT INDY ขนาด 3 นิ้ว(C730)</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>49.86096666666666</v>
       </c>
     </row>
     <row r="401">
@@ -5638,11 +7638,16 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>แปรงทาแชล็ค ด้ามไม้ รุ่น Series 200 AT INDY ขนาด 4 นิ้ว (C214)</t>
-        </is>
-      </c>
-      <c r="C401" t="n">
-        <v>54.3937</v>
+          <t>8851540016912</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>แปรงทาสีขนเคมีสังเคราะห์ AT INDY ขนาด 4 นิ้ว (C740)</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>69.80540000000001</v>
       </c>
     </row>
     <row r="402">
@@ -5651,11 +7656,16 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>แปรงทาแชล็ค ด้ามไม้ รุ่น Series 200 INDY ขนาด 2 นิ้ว (C212)</t>
-        </is>
-      </c>
-      <c r="C402" t="n">
-        <v>27.1968</v>
+          <t>8851540014130</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>แปรงทาสีขนเคมีสังเคราะห์ ด้ามยาง TPR ขนาด 2.5 นิ้ว AT INDY (C825)</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>58.92653333333333</v>
       </c>
     </row>
     <row r="403">
@@ -5664,11 +7674,16 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>แปรงลวดเหล็ก  5 แถว (C104) AT INDY</t>
-        </is>
-      </c>
-      <c r="C403" t="n">
-        <v>19.9444</v>
+          <t>8851540010507</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>แปรงทาสแชล็ค ด้ามไม้ รุ่น Series 200 INDY ขนาด 3"(C213)</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>45.3268</v>
       </c>
     </row>
     <row r="404">
@@ -5677,11 +7692,16 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>แปรงลวดเหล็ก 4 แถว (C088) AT INDY</t>
-        </is>
-      </c>
-      <c r="C404" t="n">
-        <v>18.13108333333333</v>
+          <t>8851540010484</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">แปรงทาแชล็ค ด้ามไม้ 1" (C211) รุ่น Series 200 INDY </t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>22.6639375</v>
       </c>
     </row>
     <row r="405">
@@ -5690,11 +7710,16 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t xml:space="preserve">แผ่นตัดเหล็กแบบบาง 4"X1/24"X5/8"( 50 แผ่น ) AT INDY G009 </t>
-        </is>
-      </c>
-      <c r="C405" t="n">
-        <v>271.9686</v>
+          <t>0070165980370</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>แปรงทาแชล็ค ด้ามไม้ 5" (C215) รุ่น Series 200 INDY</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>63.45932777777777</v>
       </c>
     </row>
     <row r="406">
@@ -5703,11 +7728,16 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>แว่นตากันสะเก็ด (A881) INDY</t>
-        </is>
-      </c>
-      <c r="C406" t="n">
-        <v>45.3281</v>
+          <t>8851540010514</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>แปรงทาแชล็ค ด้ามไม้ รุ่น Series 200 AT INDY ขนาด 4 นิ้ว (C214)</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>54.3937</v>
       </c>
     </row>
     <row r="407">
@@ -5716,11 +7746,16 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>แหวนอลูมิเนียม ขนาด1/4" (50กรัม)</t>
-        </is>
-      </c>
-      <c r="C407" t="n">
-        <v>10.25</v>
+          <t>8851540010491</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>แปรงทาแชล็ค ด้ามไม้ รุ่น Series 200 INDY ขนาด 2 นิ้ว (C212)</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>27.1968</v>
       </c>
     </row>
     <row r="408">
@@ -5729,11 +7764,16 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>แหวนอลูมิเนียม ขนาด1/8" (50กรัม)</t>
-        </is>
-      </c>
-      <c r="C408" t="n">
-        <v>11</v>
+          <t>8851540003486</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>แปรงลวดเหล็ก  5 แถว (C104) AT INDY</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>19.9444</v>
       </c>
     </row>
     <row r="409">
@@ -5742,11 +7782,16 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>แหวนอลูมิเนียม ขนาด3/16" (50กรัม)</t>
-        </is>
-      </c>
-      <c r="C409" t="n">
-        <v>10.25</v>
+          <t>8851540002472</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>แปรงลวดเหล็ก 4 แถว (C088) AT INDY</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>18.13108333333333</v>
       </c>
     </row>
     <row r="410">
@@ -5755,11 +7800,16 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>โครงเลื่อย รุ่นเล็ก ปรับใบเลื่อยได้ ขนาด 6 นิ้ว (H57) INDY</t>
-        </is>
-      </c>
-      <c r="C410" t="n">
-        <v>31.72967894736845</v>
+          <t>8851540016813</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">แผ่นตัดเหล็กแบบบาง 4"X1/24"X5/8"( 50 แผ่น ) AT INDY G009 </t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>271.9686</v>
       </c>
     </row>
     <row r="411">
@@ -5768,11 +7818,16 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>โซดาไฟเกล็ด KING JAGUAR ( ขนาด 1 KG. )</t>
-        </is>
-      </c>
-      <c r="C411" t="n">
-        <v>40</v>
+          <t>8851540013614</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>แว่นตากันสะเก็ด (A881) INDY</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>45.3281</v>
       </c>
     </row>
     <row r="412">
@@ -5781,11 +7836,16 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>ใบมีดกรรไกรตัดท่อพีวีซี คีมตัดท่อ INDY ขนาด 3 นิ้ว(P461)</t>
-        </is>
-      </c>
-      <c r="C412" t="n">
-        <v>22.66418888888889</v>
+          <t>122524</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>แหวนอลูมิเนียม ขนาด1/4" (50กรัม)</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>10.25</v>
       </c>
     </row>
     <row r="413">
@@ -5794,11 +7854,16 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>ใบมีดกรรไกรตัดท่อพีวีซี คีมตัดท่อ INDY ขนาด 9 นิ้ว(P451)</t>
-        </is>
-      </c>
-      <c r="C413" t="n">
-        <v>69.80540000000001</v>
+          <t>122522</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>แหวนอลูมิเนียม ขนาด1/8" (50กรัม)</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="414">
@@ -5807,11 +7872,16 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>ใบมีดคัตเตอร์ ขนาด 18 x 0.7 มม. (50ใบ/แพ็ค) H650</t>
-        </is>
-      </c>
-      <c r="C414" t="n">
-        <v>104.25465</v>
+          <t>122523</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>แหวนอลูมิเนียม ขนาด3/16" (50กรัม)</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>10.25</v>
       </c>
     </row>
     <row r="415">
@@ -5820,11 +7890,16 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>ใบมีดคัตเตอร์ ขนาด 25 มม. (10 ใบ / แพ็ค)  H126</t>
-        </is>
-      </c>
-      <c r="C415" t="n">
-        <v>67.9922</v>
+          <t>8851540001215</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>โครงเลื่อย รุ่นเล็ก ปรับใบเลื่อยได้ ขนาด 6 นิ้ว (H57) INDY</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>31.72967894736845</v>
       </c>
     </row>
     <row r="416">
@@ -5833,11 +7908,16 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>ใบมีดคัตเตอร์ ขนาด 9 มม. (10 ใบ / แพ็ค) H609</t>
-        </is>
-      </c>
-      <c r="C416" t="n">
-        <v>13.5984</v>
+          <t>120702</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>โซดาไฟเกล็ด KING JAGUAR ( ขนาด 1 KG. )</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="417">
@@ -5846,11 +7926,16 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>ใบเลื่อยเอนกประสงค์ 12" x 18T (H59) INDY (3ใบ/แพ็ค)</t>
-        </is>
-      </c>
-      <c r="C417" t="n">
-        <v>13.5984037037037</v>
+          <t>8851540016837</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>ใบมีดกรรไกรตัดท่อพีวีซี คีมตัดท่อ INDY ขนาด 3 นิ้ว(P461)</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>22.66418888888889</v>
       </c>
     </row>
     <row r="418">
@@ -5859,11 +7944,16 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>ใบเลื่อยเอนกประสงค์ 12" x 24T (H58) INDY (3ใบ/แพ็ค)</t>
-        </is>
-      </c>
-      <c r="C418" t="n">
-        <v>13.5984</v>
+          <t>8851540016820</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>ใบมีดกรรไกรตัดท่อพีวีซี คีมตัดท่อ INDY ขนาด 9 นิ้ว(P451)</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>69.80540000000001</v>
       </c>
     </row>
     <row r="419">
@@ -5872,11 +7962,16 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ไขควงปากแฉก ขนาด 4 นิ้ว AT INDY (AD241)</t>
-        </is>
-      </c>
-      <c r="C419" t="n">
-        <v>23.5706</v>
+          <t>8851540015939</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>ใบมีดคัตเตอร์ ขนาด 18 x 0.7 มม. (50ใบ/แพ็ค) H650</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>104.25465</v>
       </c>
     </row>
     <row r="420">
@@ -5885,11 +7980,16 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>ไขควงปากแฉก ขนาด 5 นิ้ว AT INDY (AD251)</t>
-        </is>
-      </c>
-      <c r="C420" t="n">
-        <v>24.477075</v>
+          <t>6920341111071</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>ใบมีดคัตเตอร์ ขนาด 25 มม. (10 ใบ / แพ็ค)  H126</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>67.9922</v>
       </c>
     </row>
     <row r="421">
@@ -5898,11 +7998,16 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>ไขควงหัวสลับ INDY ขนาด 1.5 นิ้ว ปลายแม่เหล็ก (AC115)</t>
-        </is>
-      </c>
-      <c r="C421" t="n">
-        <v>45.3281</v>
+          <t>6920341201024</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>ใบมีดคัตเตอร์ ขนาด 9 มม. (10 ใบ / แพ็ค) H609</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>13.5984</v>
       </c>
     </row>
     <row r="422">
@@ -5911,11 +8016,16 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t xml:space="preserve">ไขควงอเนกประสงค์ ไขควงซ่อมนาฬิกา 6 ตัว/ชุด INDY ด้ามหุ้มยาง(66060C) </t>
-        </is>
-      </c>
-      <c r="C422" t="n">
-        <v>72.52496666666667</v>
+          <t>8851540003349</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>ใบเลื่อยเอนกประสงค์ 12" x 18T (H59) INDY (3ใบ/แพ็ค)</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>13.5984037037037</v>
       </c>
     </row>
     <row r="423">
@@ -5924,11 +8034,16 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>ไขควงเช็คไฟ  7.5" (A50) INDY</t>
-        </is>
-      </c>
-      <c r="C423" t="n">
-        <v>45.3281</v>
+          <t>8851540003332</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>ใบเลื่อยเอนกประสงค์ 12" x 24T (H58) INDY (3ใบ/แพ็ค)</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>13.5984</v>
       </c>
     </row>
     <row r="424">
@@ -5937,11 +8052,16 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ไขควงเช็คไฟ 5.5" (A14) INDY</t>
-        </is>
-      </c>
-      <c r="C424" t="n">
-        <v>18.1312125</v>
+          <t>8851540015731</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>ไขควงปากแฉก ขนาด 4 นิ้ว AT INDY (AD241)</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>23.5706</v>
       </c>
     </row>
     <row r="425">
@@ -5950,11 +8070,16 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t xml:space="preserve">ไขควงเช็คไฟ 6 ตัว/ชุด พร้อมด้ามจับเคลือบเงา AT INDY (A20)                               </t>
-        </is>
-      </c>
-      <c r="C425" t="n">
-        <v>77.0578</v>
+          <t>8851540015779</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>ไขควงปากแฉก ขนาด 5 นิ้ว AT INDY (AD251)</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>24.477075</v>
       </c>
     </row>
     <row r="426">
@@ -5963,11 +8088,16 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>ไขควงแฉก ไขควงหุ้มยาง ปลายแม่เหล็ก AT INDY ขนาด 3 นิ้ว (AC213)</t>
-        </is>
-      </c>
-      <c r="C426" t="n">
-        <v>27.1968</v>
+          <t>8851540015045</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>ไขควงหัวสลับ INDY ขนาด 1.5 นิ้ว ปลายแม่เหล็ก (AC115)</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>45.3281</v>
       </c>
     </row>
     <row r="427">
@@ -5976,11 +8106,16 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ไขควงแบน ไขควงหุ้มยาง ปลายแม่เหล็ก AT INDY ขนาด 3 นิ้ว (AC223)</t>
-        </is>
-      </c>
-      <c r="C427" t="n">
-        <v>27.1968</v>
+          <t>8851540006241</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ไขควงอเนกประสงค์ ไขควงซ่อมนาฬิกา 6 ตัว/ชุด INDY ด้ามหุ้มยาง(66060C) </t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>72.52496666666667</v>
       </c>
     </row>
     <row r="428">
@@ -5989,10 +8124,105 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
+          <t>8851540001369</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>ไขควงเช็คไฟ  7.5" (A50) INDY</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>45.3281</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>8851540000058</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>ไขควงเช็คไฟ 5.5" (A14) INDY</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>18.1312125</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>8851540000096</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ไขควงเช็คไฟ 6 ตัว/ชุด พร้อมด้ามจับเคลือบเงา AT INDY (A20)                               </t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>77.0578</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>8851540014802</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>ไขควงแฉก ไขควงหุ้มยาง ปลายแม่เหล็ก AT INDY ขนาด 3 นิ้ว (AC213)</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>27.1968</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>8851540014819</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>ไขควงแบน ไขควงหุ้มยาง ปลายแม่เหล็ก AT INDY ขนาด 3 นิ้ว (AC223)</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>27.1968</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>8851540013775</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
           <t>ไม้ฉาก ฉากช่างไม้ ฉากวัดไม้ ขนาด 14 นิ้ว (L14)</t>
         </is>
       </c>
-      <c r="C428" t="n">
+      <c r="D433" t="n">
         <v>95.18899999999999</v>
       </c>
     </row>
